--- a/Diagrama-Márquez.xlsx
+++ b/Diagrama-Márquez.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="101">
   <si>
     <t>Tabla</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>INT</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>AUTO_INCREMENT</t>
@@ -274,7 +277,7 @@
     <t>ship_mode_id</t>
   </si>
   <si>
-    <t>id primario de la clase de valor por la que se pago el envio</t>
+    <t>id primario de la clase de envio</t>
   </si>
   <si>
     <t>id de cada categoria</t>
@@ -504,14 +507,12 @@
     <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -521,6 +522,8 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -649,7 +652,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B5:I13" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B5:I9" displayName="Table_1" id="1">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -665,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B125:I131" displayName="Table_10" id="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B80:I83" displayName="Table_10" id="10">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -681,7 +684,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B136:I145" displayName="Table_11" id="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B88:I91" displayName="Table_11" id="11">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -697,7 +700,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B150:I159" displayName="Table_12" id="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B96:I99" displayName="Table_12" id="12">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -713,7 +716,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B164:I171" displayName="Table_13" id="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B104:I106" displayName="Table_13" id="13">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -729,7 +732,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B176:I185" displayName="Table_14" id="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B111:I120" displayName="Table_14" id="14">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -745,7 +748,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B190:I199" displayName="Table_15" id="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B125:I134" displayName="Table_15" id="15">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -761,7 +764,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B18:I27" displayName="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B14:I16" displayName="Table_2" id="2">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -777,7 +780,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B32:I39" displayName="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B21:I24" displayName="Table_3" id="3">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -793,7 +796,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B44:I53" displayName="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B29:I32" displayName="Table_4" id="4">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -809,7 +812,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B58:I67" displayName="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B37:I40" displayName="Table_5" id="5">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -825,7 +828,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B72:I81" displayName="Table_6" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B45:I48" displayName="Table_6" id="6">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -841,7 +844,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B86:I95" displayName="Table_7" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B53:I56" displayName="Table_7" id="7">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -857,7 +860,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B100:I108" displayName="Table_8" id="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B61:I67" displayName="Table_8" id="8">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -873,7 +876,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B113:I120" displayName="Table_9" id="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B72:I75" displayName="Table_9" id="9">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -1094,14 +1097,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="12.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
-    <col customWidth="1" min="4" max="4" width="14.38"/>
-    <col customWidth="1" min="5" max="5" width="9.0"/>
-    <col customWidth="1" min="6" max="6" width="10.38"/>
-    <col customWidth="1" min="7" max="7" width="9.13"/>
-    <col customWidth="1" min="8" max="8" width="25.38"/>
-    <col customWidth="1" min="9" max="9" width="65.13"/>
+    <col customWidth="1" min="2" max="2" width="10.88"/>
+    <col customWidth="1" min="3" max="3" width="10.5"/>
+    <col customWidth="1" min="4" max="4" width="8.88"/>
+    <col customWidth="1" min="5" max="5" width="7.88"/>
+    <col customWidth="1" min="6" max="6" width="9.25"/>
+    <col customWidth="1" min="7" max="7" width="7.25"/>
+    <col customWidth="1" min="8" max="8" width="16.38"/>
+    <col customWidth="1" min="9" max="9" width="36.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -1279,16 +1282,20 @@
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1311,22 +1318,28 @@
     <row r="7" ht="17.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1349,22 +1362,28 @@
     <row r="8" ht="17.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1386,21 +1405,27 @@
     </row>
     <row r="9" ht="17.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8">
         <v>40.0</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1422,14 +1447,14 @@
     </row>
     <row r="10" ht="17.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1450,14 +1475,14 @@
     </row>
     <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1478,14 +1503,18 @@
     </row>
     <row r="12" ht="17.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1506,14 +1535,18 @@
     </row>
     <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1534,14 +1567,30 @@
     </row>
     <row r="14" ht="17.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1562,14 +1611,30 @@
     </row>
     <row r="15" ht="17.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1590,18 +1655,30 @@
     </row>
     <row r="16" ht="17.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1622,18 +1699,14 @@
     </row>
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1654,30 +1727,14 @@
     </row>
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1698,26 +1755,18 @@
     </row>
     <row r="19" ht="17.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1738,24 +1787,18 @@
     </row>
     <row r="20" ht="17.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1776,14 +1819,30 @@
     </row>
     <row r="21" ht="17.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1804,14 +1863,30 @@
     </row>
     <row r="22" ht="17.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1832,14 +1907,30 @@
     </row>
     <row r="23" ht="17.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1860,14 +1951,28 @@
     </row>
     <row r="24" ht="17.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1888,14 +1993,14 @@
     </row>
     <row r="25" ht="17.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1916,14 +2021,14 @@
     </row>
     <row r="26" ht="17.25" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1943,219 +2048,255 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
     </row>
     <row r="30" ht="17.25" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
     </row>
     <row r="31" ht="17.25" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
     </row>
     <row r="32" ht="17.25" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
+      <c r="G32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
     </row>
     <row r="33" ht="17.25" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2176,26 +2317,14 @@
     </row>
     <row r="34" ht="17.25" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2215,180 +2344,238 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" ht="17.25" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="8">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+    </row>
+    <row r="36" ht="17.25" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+    </row>
+    <row r="37" ht="17.25" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+    </row>
+    <row r="39" ht="17.25" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+    </row>
+    <row r="40" ht="17.25" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="8">
         <v>40.0</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-    </row>
-    <row r="36" ht="17.25" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-    </row>
-    <row r="37" ht="17.25" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" ht="17.25" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39" ht="17.25" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-    </row>
-    <row r="40" ht="17.25" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
     </row>
     <row r="41" ht="17.25" customHeight="1">
       <c r="A41" s="1"/>
@@ -2419,405 +2606,463 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" ht="17.25" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" ht="17.25" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-    </row>
-    <row r="43" ht="17.25" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" ht="17.25" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-    </row>
-    <row r="44" ht="17.25" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="18" t="s">
+      <c r="C44" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" ht="17.25" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D45" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E45" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F45" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G45" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H45" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I45" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-    </row>
-    <row r="45" ht="17.25" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8" t="s">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" ht="17.25" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="8" t="s">
+      <c r="E46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="8" t="s">
+      <c r="G46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-    </row>
-    <row r="46" ht="17.25" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
+      <c r="H46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
     </row>
     <row r="47" ht="17.25" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C47" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="9"/>
+      <c r="E47" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F47" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="G47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I47" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
     </row>
     <row r="48" ht="17.25" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
     </row>
     <row r="49" ht="17.25" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
     </row>
     <row r="50" ht="17.25" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
     </row>
     <row r="51" ht="17.25" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
     </row>
     <row r="52" ht="17.25" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
     </row>
     <row r="53" ht="17.25" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
     </row>
     <row r="54" ht="17.25" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="B54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2838,14 +3083,30 @@
     </row>
     <row r="55" ht="17.25" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="B55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -2865,394 +3126,476 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" ht="17.25" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+    </row>
+    <row r="57" ht="17.25" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+    </row>
+    <row r="58" ht="17.25" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+    </row>
+    <row r="59" ht="17.25" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-    </row>
-    <row r="57" ht="17.25" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="14" t="s">
+      <c r="C59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+    </row>
+    <row r="60" ht="17.25" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-    </row>
-    <row r="58" ht="17.25" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="18" t="s">
+      <c r="C60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+    </row>
+    <row r="61" ht="17.25" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C61" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E61" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F61" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G61" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="H61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I61" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-    </row>
-    <row r="59" ht="17.25" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="8" t="s">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" ht="17.25" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="C62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="8" t="s">
+      <c r="E62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="8" t="s">
+      <c r="G62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
-    </row>
-    <row r="60" ht="17.25" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="20" t="s">
+      <c r="H62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+    </row>
+    <row r="63" ht="17.25" customHeight="1">
+      <c r="A63" s="1"/>
+      <c r="B63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20" t="s">
+      <c r="E63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13"/>
-    </row>
-    <row r="61" ht="17.25" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="8" t="s">
+      <c r="G63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-    </row>
-    <row r="62" ht="17.25" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
-    </row>
-    <row r="63" ht="17.25" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
     </row>
     <row r="64" ht="17.25" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
     </row>
     <row r="65" ht="17.25" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
     </row>
     <row r="66" ht="17.25" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="13"/>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="13"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
     </row>
     <row r="67" ht="17.25" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="13"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="13"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
     </row>
     <row r="68" ht="17.25" customHeight="1">
       <c r="A68" s="1"/>
@@ -3312,11 +3655,11 @@
     </row>
     <row r="70" ht="17.25" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>47</v>
+      <c r="C70" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3344,18 +3687,18 @@
     </row>
     <row r="71" ht="17.25" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="17"/>
+      <c r="C71" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3376,28 +3719,28 @@
     </row>
     <row r="72" ht="17.25" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="18" t="s">
+      <c r="H72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="18" t="s">
+      <c r="I72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J72" s="1"/>
@@ -3424,21 +3767,25 @@
         <v>12</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="9"/>
+      <c r="E73" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F73" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="9"/>
+      <c r="G73" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="H73" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3461,22 +3808,28 @@
     <row r="74" ht="17.25" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F74" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
+      <c r="G74" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I74" s="8" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -3498,21 +3851,29 @@
     </row>
     <row r="75" ht="17.25" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="9"/>
+      <c r="B75" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C75" s="8" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E75" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
+        <v>100.0</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I75" s="8" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -3534,14 +3895,14 @@
     </row>
     <row r="76" ht="17.25" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -3562,14 +3923,14 @@
     </row>
     <row r="77" ht="17.25" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -3590,14 +3951,18 @@
     </row>
     <row r="78" ht="17.25" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
+      <c r="B78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3618,14 +3983,18 @@
     </row>
     <row r="79" ht="17.25" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
+      <c r="B79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -3646,14 +4015,30 @@
     </row>
     <row r="80" ht="17.25" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
+      <c r="B80" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -3674,14 +4059,30 @@
     </row>
     <row r="81" ht="17.25" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
+      <c r="B81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -3702,14 +4103,30 @@
     </row>
     <row r="82" ht="17.25" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="B82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -3730,14 +4147,30 @@
     </row>
     <row r="83" ht="17.25" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="B83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -3758,18 +4191,14 @@
     </row>
     <row r="84" ht="17.25" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="6"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -3790,18 +4219,14 @@
     </row>
     <row r="85" ht="17.25" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="17"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -3822,30 +4247,18 @@
     </row>
     <row r="86" ht="17.25" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="B86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -3866,26 +4279,18 @@
     </row>
     <row r="87" ht="17.25" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="B87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="6"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -3906,23 +4311,29 @@
     </row>
     <row r="88" ht="17.25" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="8" t="s">
+      <c r="B88" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="8" t="s">
-        <v>40</v>
+      <c r="G88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -3944,21 +4355,29 @@
     </row>
     <row r="89" ht="17.25" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="9"/>
+      <c r="B89" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C89" s="8" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="I89" s="8" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -3980,14 +4399,30 @@
     </row>
     <row r="90" ht="17.25" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
+      <c r="B90" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -4008,14 +4443,30 @@
     </row>
     <row r="91" ht="17.25" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
+      <c r="B91" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -4036,14 +4487,14 @@
     </row>
     <row r="92" ht="17.25" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -4064,14 +4515,14 @@
     </row>
     <row r="93" ht="17.25" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -4091,207 +4542,255 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" ht="17.25" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="13"/>
+      <c r="X94" s="13"/>
+      <c r="Y94" s="13"/>
+      <c r="Z94" s="13"/>
     </row>
     <row r="95" ht="17.25" customHeight="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
-      <c r="Z95" s="1"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="13"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
+      <c r="X95" s="13"/>
+      <c r="Y95" s="13"/>
+      <c r="Z95" s="13"/>
     </row>
     <row r="96" ht="17.25" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13"/>
+      <c r="V96" s="13"/>
+      <c r="W96" s="13"/>
+      <c r="X96" s="13"/>
+      <c r="Y96" s="13"/>
+      <c r="Z96" s="13"/>
     </row>
     <row r="97" ht="17.25" customHeight="1">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="13"/>
+      <c r="V97" s="13"/>
+      <c r="W97" s="13"/>
+      <c r="X97" s="13"/>
+      <c r="Y97" s="13"/>
+      <c r="Z97" s="13"/>
     </row>
     <row r="98" ht="17.25" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="B98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="13"/>
+      <c r="X98" s="13"/>
+      <c r="Y98" s="13"/>
+      <c r="Z98" s="13"/>
     </row>
     <row r="99" ht="17.25" customHeight="1">
-      <c r="A99" s="1"/>
-      <c r="B99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="13"/>
+      <c r="X99" s="13"/>
+      <c r="Y99" s="13"/>
+      <c r="Z99" s="13"/>
     </row>
     <row r="100" ht="17.25" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -4312,26 +4811,14 @@
     </row>
     <row r="101" ht="17.25" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -4352,24 +4839,18 @@
     </row>
     <row r="102" ht="17.25" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="6"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -4390,20 +4871,18 @@
     </row>
     <row r="103" ht="17.25" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="B103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="6"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -4424,21 +4903,29 @@
     </row>
     <row r="104" ht="17.25" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="8" t="s">
-        <v>67</v>
+      <c r="B104" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -4460,21 +4947,29 @@
     </row>
     <row r="105" ht="17.25" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="9"/>
+      <c r="B105" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C105" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="I105" s="8" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -4496,21 +4991,29 @@
     </row>
     <row r="106" ht="17.25" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="9"/>
+      <c r="B106" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C106" s="8" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I106" s="8" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -4532,14 +5035,14 @@
     </row>
     <row r="107" ht="17.25" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -4560,14 +5063,14 @@
     </row>
     <row r="108" ht="17.25" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -4588,14 +5091,16 @@
     </row>
     <row r="109" ht="17.25" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="B109" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="6"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -4616,14 +5121,16 @@
     </row>
     <row r="110" ht="17.25" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="B110" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="27"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="17"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -4644,18 +5151,30 @@
     </row>
     <row r="111" ht="17.25" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="6"/>
+      <c r="B111" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -4676,18 +5195,14 @@
     </row>
     <row r="112" ht="17.25" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="6"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -4708,30 +5223,14 @@
     </row>
     <row r="113" ht="17.25" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B113" s="19"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -4752,26 +5251,14 @@
     </row>
     <row r="114" ht="17.25" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" s="9"/>
-      <c r="H114" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="B114" s="28"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -4792,24 +5279,14 @@
     </row>
     <row r="115" ht="17.25" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115" s="9"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="B115" s="19"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -4830,24 +5307,14 @@
     </row>
     <row r="116" ht="17.25" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E116" s="8">
-        <v>100.0</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="B116" s="28"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -4868,14 +5335,14 @@
     </row>
     <row r="117" ht="17.25" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -4896,14 +5363,14 @@
     </row>
     <row r="118" ht="17.25" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -4924,14 +5391,14 @@
     </row>
     <row r="119" ht="17.25" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -4952,14 +5419,14 @@
     </row>
     <row r="120" ht="17.25" customHeight="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -5036,12 +5503,10 @@
     </row>
     <row r="123" ht="17.25" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="C123" s="26"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5068,18 +5533,16 @@
     </row>
     <row r="124" ht="17.25" customHeight="1">
       <c r="A124" s="1"/>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="6"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="17"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -5100,28 +5563,28 @@
     </row>
     <row r="125" ht="17.25" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G125" s="7" t="s">
+      <c r="G125" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H125" s="7" t="s">
+      <c r="H125" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="7" t="s">
+      <c r="I125" s="18" t="s">
         <v>11</v>
       </c>
       <c r="J125" s="1"/>
@@ -5144,26 +5607,14 @@
     </row>
     <row r="126" ht="17.25" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="B126" s="28"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -5184,24 +5635,14 @@
     </row>
     <row r="127" ht="17.25" customHeight="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B127" s="19"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -5222,22 +5663,14 @@
     </row>
     <row r="128" ht="17.25" customHeight="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="B128" s="28"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -5258,14 +5691,14 @@
     </row>
     <row r="129" ht="17.25" customHeight="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -5286,14 +5719,14 @@
     </row>
     <row r="130" ht="17.25" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -5314,14 +5747,14 @@
     </row>
     <row r="131" ht="17.25" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -5342,14 +5775,14 @@
     </row>
     <row r="132" ht="17.25" customHeight="1">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -5370,14 +5803,14 @@
     </row>
     <row r="133" ht="17.25" customHeight="1">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -5398,18 +5831,14 @@
     </row>
     <row r="134" ht="17.25" customHeight="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="6"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -5430,18 +5859,14 @@
     </row>
     <row r="135" ht="17.25" customHeight="1">
       <c r="A135" s="1"/>
-      <c r="B135" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="6"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -5462,30 +5887,14 @@
     </row>
     <row r="136" ht="17.25" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -5506,26 +5915,14 @@
     </row>
     <row r="137" ht="17.25" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G137" s="9"/>
-      <c r="H137" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I137" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -5546,24 +5943,14 @@
     </row>
     <row r="138" ht="17.25" customHeight="1">
       <c r="A138" s="1"/>
-      <c r="B138" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="9"/>
-      <c r="F138" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G138" s="9"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -5584,22 +5971,14 @@
     </row>
     <row r="139" ht="17.25" customHeight="1">
       <c r="A139" s="1"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E139" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -5620,14 +5999,14 @@
     </row>
     <row r="140" ht="17.25" customHeight="1">
       <c r="A140" s="1"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -5648,14 +6027,14 @@
     </row>
     <row r="141" ht="17.25" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -5676,14 +6055,14 @@
     </row>
     <row r="142" ht="17.25" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -5704,14 +6083,14 @@
     </row>
     <row r="143" ht="17.25" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -5732,14 +6111,14 @@
     </row>
     <row r="144" ht="17.25" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -5760,14 +6139,14 @@
     </row>
     <row r="145" ht="17.25" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -5843,394 +6222,340 @@
       <c r="Z147" s="1"/>
     </row>
     <row r="148" ht="17.25" customHeight="1">
-      <c r="A148" s="10"/>
-      <c r="B148" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="13"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="13"/>
-      <c r="M148" s="13"/>
-      <c r="N148" s="13"/>
-      <c r="O148" s="13"/>
-      <c r="P148" s="13"/>
-      <c r="Q148" s="13"/>
-      <c r="R148" s="13"/>
-      <c r="S148" s="13"/>
-      <c r="T148" s="13"/>
-      <c r="U148" s="13"/>
-      <c r="V148" s="13"/>
-      <c r="W148" s="13"/>
-      <c r="X148" s="13"/>
-      <c r="Y148" s="13"/>
-      <c r="Z148" s="13"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+      <c r="Y148" s="1"/>
+      <c r="Z148" s="1"/>
     </row>
     <row r="149" ht="17.25" customHeight="1">
-      <c r="A149" s="10"/>
-      <c r="B149" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="13"/>
-      <c r="L149" s="13"/>
-      <c r="M149" s="13"/>
-      <c r="N149" s="13"/>
-      <c r="O149" s="13"/>
-      <c r="P149" s="13"/>
-      <c r="Q149" s="13"/>
-      <c r="R149" s="13"/>
-      <c r="S149" s="13"/>
-      <c r="T149" s="13"/>
-      <c r="U149" s="13"/>
-      <c r="V149" s="13"/>
-      <c r="W149" s="13"/>
-      <c r="X149" s="13"/>
-      <c r="Y149" s="13"/>
-      <c r="Z149" s="13"/>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+      <c r="Y149" s="1"/>
+      <c r="Z149" s="1"/>
     </row>
     <row r="150" ht="17.25" customHeight="1">
-      <c r="A150" s="10"/>
-      <c r="B150" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E150" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H150" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I150" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J150" s="13"/>
-      <c r="K150" s="13"/>
-      <c r="L150" s="13"/>
-      <c r="M150" s="13"/>
-      <c r="N150" s="13"/>
-      <c r="O150" s="13"/>
-      <c r="P150" s="13"/>
-      <c r="Q150" s="13"/>
-      <c r="R150" s="13"/>
-      <c r="S150" s="13"/>
-      <c r="T150" s="13"/>
-      <c r="U150" s="13"/>
-      <c r="V150" s="13"/>
-      <c r="W150" s="13"/>
-      <c r="X150" s="13"/>
-      <c r="Y150" s="13"/>
-      <c r="Z150" s="13"/>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1"/>
     </row>
     <row r="151" ht="17.25" customHeight="1">
-      <c r="A151" s="10"/>
-      <c r="B151" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I151" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="J151" s="13"/>
-      <c r="K151" s="13"/>
-      <c r="L151" s="13"/>
-      <c r="M151" s="13"/>
-      <c r="N151" s="13"/>
-      <c r="O151" s="13"/>
-      <c r="P151" s="13"/>
-      <c r="Q151" s="13"/>
-      <c r="R151" s="13"/>
-      <c r="S151" s="13"/>
-      <c r="T151" s="13"/>
-      <c r="U151" s="13"/>
-      <c r="V151" s="13"/>
-      <c r="W151" s="13"/>
-      <c r="X151" s="13"/>
-      <c r="Y151" s="13"/>
-      <c r="Z151" s="13"/>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1"/>
     </row>
     <row r="152" ht="17.25" customHeight="1">
-      <c r="A152" s="10"/>
-      <c r="B152" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" s="9"/>
-      <c r="F152" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G152" s="9"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J152" s="13"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="13"/>
-      <c r="N152" s="13"/>
-      <c r="O152" s="13"/>
-      <c r="P152" s="13"/>
-      <c r="Q152" s="13"/>
-      <c r="R152" s="13"/>
-      <c r="S152" s="13"/>
-      <c r="T152" s="13"/>
-      <c r="U152" s="13"/>
-      <c r="V152" s="13"/>
-      <c r="W152" s="13"/>
-      <c r="X152" s="13"/>
-      <c r="Y152" s="13"/>
-      <c r="Z152" s="13"/>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1"/>
     </row>
     <row r="153" ht="17.25" customHeight="1">
-      <c r="A153" s="10"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E153" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J153" s="13"/>
-      <c r="K153" s="13"/>
-      <c r="L153" s="13"/>
-      <c r="M153" s="13"/>
-      <c r="N153" s="13"/>
-      <c r="O153" s="13"/>
-      <c r="P153" s="13"/>
-      <c r="Q153" s="13"/>
-      <c r="R153" s="13"/>
-      <c r="S153" s="13"/>
-      <c r="T153" s="13"/>
-      <c r="U153" s="13"/>
-      <c r="V153" s="13"/>
-      <c r="W153" s="13"/>
-      <c r="X153" s="13"/>
-      <c r="Y153" s="13"/>
-      <c r="Z153" s="13"/>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+      <c r="Y153" s="1"/>
+      <c r="Z153" s="1"/>
     </row>
     <row r="154" ht="17.25" customHeight="1">
-      <c r="A154" s="10"/>
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="21"/>
-      <c r="I154" s="21"/>
-      <c r="J154" s="13"/>
-      <c r="K154" s="13"/>
-      <c r="L154" s="13"/>
-      <c r="M154" s="13"/>
-      <c r="N154" s="13"/>
-      <c r="O154" s="13"/>
-      <c r="P154" s="13"/>
-      <c r="Q154" s="13"/>
-      <c r="R154" s="13"/>
-      <c r="S154" s="13"/>
-      <c r="T154" s="13"/>
-      <c r="U154" s="13"/>
-      <c r="V154" s="13"/>
-      <c r="W154" s="13"/>
-      <c r="X154" s="13"/>
-      <c r="Y154" s="13"/>
-      <c r="Z154" s="13"/>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+      <c r="X154" s="1"/>
+      <c r="Y154" s="1"/>
+      <c r="Z154" s="1"/>
     </row>
     <row r="155" ht="17.25" customHeight="1">
-      <c r="A155" s="10"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22"/>
-      <c r="I155" s="22"/>
-      <c r="J155" s="13"/>
-      <c r="K155" s="13"/>
-      <c r="L155" s="13"/>
-      <c r="M155" s="13"/>
-      <c r="N155" s="13"/>
-      <c r="O155" s="13"/>
-      <c r="P155" s="13"/>
-      <c r="Q155" s="13"/>
-      <c r="R155" s="13"/>
-      <c r="S155" s="13"/>
-      <c r="T155" s="13"/>
-      <c r="U155" s="13"/>
-      <c r="V155" s="13"/>
-      <c r="W155" s="13"/>
-      <c r="X155" s="13"/>
-      <c r="Y155" s="13"/>
-      <c r="Z155" s="13"/>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="X155" s="1"/>
+      <c r="Y155" s="1"/>
+      <c r="Z155" s="1"/>
     </row>
     <row r="156" ht="17.25" customHeight="1">
-      <c r="A156" s="10"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="13"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="13"/>
-      <c r="O156" s="13"/>
-      <c r="P156" s="13"/>
-      <c r="Q156" s="13"/>
-      <c r="R156" s="13"/>
-      <c r="S156" s="13"/>
-      <c r="T156" s="13"/>
-      <c r="U156" s="13"/>
-      <c r="V156" s="13"/>
-      <c r="W156" s="13"/>
-      <c r="X156" s="13"/>
-      <c r="Y156" s="13"/>
-      <c r="Z156" s="13"/>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
+      <c r="Y156" s="1"/>
+      <c r="Z156" s="1"/>
     </row>
     <row r="157" ht="17.25" customHeight="1">
-      <c r="A157" s="10"/>
-      <c r="B157" s="22"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="22"/>
-      <c r="I157" s="22"/>
-      <c r="J157" s="13"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="13"/>
-      <c r="M157" s="13"/>
-      <c r="N157" s="13"/>
-      <c r="O157" s="13"/>
-      <c r="P157" s="13"/>
-      <c r="Q157" s="13"/>
-      <c r="R157" s="13"/>
-      <c r="S157" s="13"/>
-      <c r="T157" s="13"/>
-      <c r="U157" s="13"/>
-      <c r="V157" s="13"/>
-      <c r="W157" s="13"/>
-      <c r="X157" s="13"/>
-      <c r="Y157" s="13"/>
-      <c r="Z157" s="13"/>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
+      <c r="Z157" s="1"/>
     </row>
     <row r="158" ht="17.25" customHeight="1">
-      <c r="A158" s="10"/>
-      <c r="B158" s="21"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="13"/>
-      <c r="K158" s="13"/>
-      <c r="L158" s="13"/>
-      <c r="M158" s="13"/>
-      <c r="N158" s="13"/>
-      <c r="O158" s="13"/>
-      <c r="P158" s="13"/>
-      <c r="Q158" s="13"/>
-      <c r="R158" s="13"/>
-      <c r="S158" s="13"/>
-      <c r="T158" s="13"/>
-      <c r="U158" s="13"/>
-      <c r="V158" s="13"/>
-      <c r="W158" s="13"/>
-      <c r="X158" s="13"/>
-      <c r="Y158" s="13"/>
-      <c r="Z158" s="13"/>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="1"/>
+      <c r="Z158" s="1"/>
     </row>
     <row r="159" ht="17.25" customHeight="1">
-      <c r="A159" s="10"/>
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="22"/>
-      <c r="I159" s="22"/>
-      <c r="J159" s="13"/>
-      <c r="K159" s="13"/>
-      <c r="L159" s="13"/>
-      <c r="M159" s="13"/>
-      <c r="N159" s="13"/>
-      <c r="O159" s="13"/>
-      <c r="P159" s="13"/>
-      <c r="Q159" s="13"/>
-      <c r="R159" s="13"/>
-      <c r="S159" s="13"/>
-      <c r="T159" s="13"/>
-      <c r="U159" s="13"/>
-      <c r="V159" s="13"/>
-      <c r="W159" s="13"/>
-      <c r="X159" s="13"/>
-      <c r="Y159" s="13"/>
-      <c r="Z159" s="13"/>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
     </row>
     <row r="160" ht="17.25" customHeight="1">
       <c r="A160" s="1"/>
@@ -6290,18 +6615,14 @@
     </row>
     <row r="162" ht="17.25" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="6"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -6322,18 +6643,14 @@
     </row>
     <row r="163" ht="17.25" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="6"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -6354,30 +6671,14 @@
     </row>
     <row r="164" ht="17.25" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -6398,26 +6699,14 @@
     </row>
     <row r="165" ht="17.25" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" s="9"/>
-      <c r="F165" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G165" s="9"/>
-      <c r="H165" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I165" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -6438,22 +6727,14 @@
     </row>
     <row r="166" ht="17.25" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E166" s="9"/>
-      <c r="F166" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -6474,14 +6755,14 @@
     </row>
     <row r="167" ht="17.25" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -6502,14 +6783,14 @@
     </row>
     <row r="168" ht="17.25" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="9"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -6530,14 +6811,14 @@
     </row>
     <row r="169" ht="17.25" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="9"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -6558,14 +6839,14 @@
     </row>
     <row r="170" ht="17.25" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -6586,14 +6867,14 @@
     </row>
     <row r="171" ht="17.25" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="9"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -6670,16 +6951,14 @@
     </row>
     <row r="174" ht="17.25" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="28"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="6"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -6700,16 +6979,14 @@
     </row>
     <row r="175" ht="17.25" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C175" s="29"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="16"/>
-      <c r="H175" s="16"/>
-      <c r="I175" s="17"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -6730,30 +7007,14 @@
     </row>
     <row r="176" ht="17.25" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E176" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G176" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H176" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I176" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -6774,14 +7035,14 @@
     </row>
     <row r="177" ht="17.25" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="22"/>
-      <c r="F177" s="22"/>
-      <c r="G177" s="22"/>
-      <c r="H177" s="22"/>
-      <c r="I177" s="22"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -6802,14 +7063,14 @@
     </row>
     <row r="178" ht="17.25" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="21"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="21"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -6830,14 +7091,14 @@
     </row>
     <row r="179" ht="17.25" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="22"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="22"/>
-      <c r="F179" s="22"/>
-      <c r="G179" s="22"/>
-      <c r="H179" s="22"/>
-      <c r="I179" s="22"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -6858,14 +7119,14 @@
     </row>
     <row r="180" ht="17.25" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="21"/>
-      <c r="D180" s="21"/>
-      <c r="E180" s="21"/>
-      <c r="F180" s="21"/>
-      <c r="G180" s="21"/>
-      <c r="H180" s="21"/>
-      <c r="I180" s="21"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
@@ -6886,14 +7147,14 @@
     </row>
     <row r="181" ht="17.25" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="22"/>
-      <c r="F181" s="22"/>
-      <c r="G181" s="22"/>
-      <c r="H181" s="22"/>
-      <c r="I181" s="22"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -6914,14 +7175,14 @@
     </row>
     <row r="182" ht="17.25" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="19"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="21"/>
-      <c r="I182" s="21"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -6942,14 +7203,14 @@
     </row>
     <row r="183" ht="17.25" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="22"/>
-      <c r="G183" s="22"/>
-      <c r="H183" s="22"/>
-      <c r="I183" s="22"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -6970,14 +7231,14 @@
     </row>
     <row r="184" ht="17.25" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="19"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="21"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="21"/>
-      <c r="I184" s="21"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -6998,14 +7259,14 @@
     </row>
     <row r="185" ht="17.25" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="22"/>
-      <c r="E185" s="22"/>
-      <c r="F185" s="22"/>
-      <c r="G185" s="22"/>
-      <c r="H185" s="22"/>
-      <c r="I185" s="22"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -7082,16 +7343,14 @@
     </row>
     <row r="188" ht="17.25" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" s="28"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="6"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -7112,16 +7371,14 @@
     </row>
     <row r="189" ht="17.25" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C189" s="29"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="16"/>
-      <c r="F189" s="16"/>
-      <c r="G189" s="16"/>
-      <c r="H189" s="16"/>
-      <c r="I189" s="17"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
@@ -7142,30 +7399,14 @@
     </row>
     <row r="190" ht="17.25" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E190" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F190" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G190" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H190" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I190" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -7186,14 +7427,14 @@
     </row>
     <row r="191" ht="17.25" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="22"/>
-      <c r="F191" s="22"/>
-      <c r="G191" s="22"/>
-      <c r="H191" s="22"/>
-      <c r="I191" s="22"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -7214,14 +7455,14 @@
     </row>
     <row r="192" ht="17.25" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="19"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="21"/>
-      <c r="I192" s="21"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -7242,14 +7483,14 @@
     </row>
     <row r="193" ht="17.25" customHeight="1">
       <c r="A193" s="1"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="22"/>
-      <c r="G193" s="22"/>
-      <c r="H193" s="22"/>
-      <c r="I193" s="22"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -7270,14 +7511,14 @@
     </row>
     <row r="194" ht="17.25" customHeight="1">
       <c r="A194" s="1"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="21"/>
-      <c r="D194" s="21"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="21"/>
-      <c r="G194" s="21"/>
-      <c r="H194" s="21"/>
-      <c r="I194" s="21"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -7298,14 +7539,14 @@
     </row>
     <row r="195" ht="17.25" customHeight="1">
       <c r="A195" s="1"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="22"/>
-      <c r="F195" s="22"/>
-      <c r="G195" s="22"/>
-      <c r="H195" s="22"/>
-      <c r="I195" s="22"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -7326,14 +7567,14 @@
     </row>
     <row r="196" ht="17.25" customHeight="1">
       <c r="A196" s="1"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21"/>
-      <c r="E196" s="21"/>
-      <c r="F196" s="21"/>
-      <c r="G196" s="21"/>
-      <c r="H196" s="21"/>
-      <c r="I196" s="21"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -7354,14 +7595,14 @@
     </row>
     <row r="197" ht="17.25" customHeight="1">
       <c r="A197" s="1"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="22"/>
-      <c r="F197" s="22"/>
-      <c r="G197" s="22"/>
-      <c r="H197" s="22"/>
-      <c r="I197" s="22"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -7382,14 +7623,14 @@
     </row>
     <row r="198" ht="17.25" customHeight="1">
       <c r="A198" s="1"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="21"/>
-      <c r="H198" s="21"/>
-      <c r="I198" s="21"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -7410,14 +7651,14 @@
     </row>
     <row r="199" ht="17.25" customHeight="1">
       <c r="A199" s="1"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="22"/>
-      <c r="E199" s="22"/>
-      <c r="F199" s="22"/>
-      <c r="G199" s="22"/>
-      <c r="H199" s="22"/>
-      <c r="I199" s="22"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -27820,1858 +28061,38 @@
       <c r="Y927" s="1"/>
       <c r="Z927" s="1"/>
     </row>
-    <row r="928" ht="17.25" customHeight="1">
-      <c r="A928" s="1"/>
-      <c r="B928" s="1"/>
-      <c r="C928" s="1"/>
-      <c r="D928" s="1"/>
-      <c r="E928" s="1"/>
-      <c r="F928" s="1"/>
-      <c r="G928" s="1"/>
-      <c r="H928" s="1"/>
-      <c r="I928" s="1"/>
-      <c r="J928" s="1"/>
-      <c r="K928" s="1"/>
-      <c r="L928" s="1"/>
-      <c r="M928" s="1"/>
-      <c r="N928" s="1"/>
-      <c r="O928" s="1"/>
-      <c r="P928" s="1"/>
-      <c r="Q928" s="1"/>
-      <c r="R928" s="1"/>
-      <c r="S928" s="1"/>
-      <c r="T928" s="1"/>
-      <c r="U928" s="1"/>
-      <c r="V928" s="1"/>
-      <c r="W928" s="1"/>
-      <c r="X928" s="1"/>
-      <c r="Y928" s="1"/>
-      <c r="Z928" s="1"/>
-    </row>
-    <row r="929" ht="17.25" customHeight="1">
-      <c r="A929" s="1"/>
-      <c r="B929" s="1"/>
-      <c r="C929" s="1"/>
-      <c r="D929" s="1"/>
-      <c r="E929" s="1"/>
-      <c r="F929" s="1"/>
-      <c r="G929" s="1"/>
-      <c r="H929" s="1"/>
-      <c r="I929" s="1"/>
-      <c r="J929" s="1"/>
-      <c r="K929" s="1"/>
-      <c r="L929" s="1"/>
-      <c r="M929" s="1"/>
-      <c r="N929" s="1"/>
-      <c r="O929" s="1"/>
-      <c r="P929" s="1"/>
-      <c r="Q929" s="1"/>
-      <c r="R929" s="1"/>
-      <c r="S929" s="1"/>
-      <c r="T929" s="1"/>
-      <c r="U929" s="1"/>
-      <c r="V929" s="1"/>
-      <c r="W929" s="1"/>
-      <c r="X929" s="1"/>
-      <c r="Y929" s="1"/>
-      <c r="Z929" s="1"/>
-    </row>
-    <row r="930" ht="17.25" customHeight="1">
-      <c r="A930" s="1"/>
-      <c r="B930" s="1"/>
-      <c r="C930" s="1"/>
-      <c r="D930" s="1"/>
-      <c r="E930" s="1"/>
-      <c r="F930" s="1"/>
-      <c r="G930" s="1"/>
-      <c r="H930" s="1"/>
-      <c r="I930" s="1"/>
-      <c r="J930" s="1"/>
-      <c r="K930" s="1"/>
-      <c r="L930" s="1"/>
-      <c r="M930" s="1"/>
-      <c r="N930" s="1"/>
-      <c r="O930" s="1"/>
-      <c r="P930" s="1"/>
-      <c r="Q930" s="1"/>
-      <c r="R930" s="1"/>
-      <c r="S930" s="1"/>
-      <c r="T930" s="1"/>
-      <c r="U930" s="1"/>
-      <c r="V930" s="1"/>
-      <c r="W930" s="1"/>
-      <c r="X930" s="1"/>
-      <c r="Y930" s="1"/>
-      <c r="Z930" s="1"/>
-    </row>
-    <row r="931" ht="17.25" customHeight="1">
-      <c r="A931" s="1"/>
-      <c r="B931" s="1"/>
-      <c r="C931" s="1"/>
-      <c r="D931" s="1"/>
-      <c r="E931" s="1"/>
-      <c r="F931" s="1"/>
-      <c r="G931" s="1"/>
-      <c r="H931" s="1"/>
-      <c r="I931" s="1"/>
-      <c r="J931" s="1"/>
-      <c r="K931" s="1"/>
-      <c r="L931" s="1"/>
-      <c r="M931" s="1"/>
-      <c r="N931" s="1"/>
-      <c r="O931" s="1"/>
-      <c r="P931" s="1"/>
-      <c r="Q931" s="1"/>
-      <c r="R931" s="1"/>
-      <c r="S931" s="1"/>
-      <c r="T931" s="1"/>
-      <c r="U931" s="1"/>
-      <c r="V931" s="1"/>
-      <c r="W931" s="1"/>
-      <c r="X931" s="1"/>
-      <c r="Y931" s="1"/>
-      <c r="Z931" s="1"/>
-    </row>
-    <row r="932" ht="17.25" customHeight="1">
-      <c r="A932" s="1"/>
-      <c r="B932" s="1"/>
-      <c r="C932" s="1"/>
-      <c r="D932" s="1"/>
-      <c r="E932" s="1"/>
-      <c r="F932" s="1"/>
-      <c r="G932" s="1"/>
-      <c r="H932" s="1"/>
-      <c r="I932" s="1"/>
-      <c r="J932" s="1"/>
-      <c r="K932" s="1"/>
-      <c r="L932" s="1"/>
-      <c r="M932" s="1"/>
-      <c r="N932" s="1"/>
-      <c r="O932" s="1"/>
-      <c r="P932" s="1"/>
-      <c r="Q932" s="1"/>
-      <c r="R932" s="1"/>
-      <c r="S932" s="1"/>
-      <c r="T932" s="1"/>
-      <c r="U932" s="1"/>
-      <c r="V932" s="1"/>
-      <c r="W932" s="1"/>
-      <c r="X932" s="1"/>
-      <c r="Y932" s="1"/>
-      <c r="Z932" s="1"/>
-    </row>
-    <row r="933" ht="17.25" customHeight="1">
-      <c r="A933" s="1"/>
-      <c r="B933" s="1"/>
-      <c r="C933" s="1"/>
-      <c r="D933" s="1"/>
-      <c r="E933" s="1"/>
-      <c r="F933" s="1"/>
-      <c r="G933" s="1"/>
-      <c r="H933" s="1"/>
-      <c r="I933" s="1"/>
-      <c r="J933" s="1"/>
-      <c r="K933" s="1"/>
-      <c r="L933" s="1"/>
-      <c r="M933" s="1"/>
-      <c r="N933" s="1"/>
-      <c r="O933" s="1"/>
-      <c r="P933" s="1"/>
-      <c r="Q933" s="1"/>
-      <c r="R933" s="1"/>
-      <c r="S933" s="1"/>
-      <c r="T933" s="1"/>
-      <c r="U933" s="1"/>
-      <c r="V933" s="1"/>
-      <c r="W933" s="1"/>
-      <c r="X933" s="1"/>
-      <c r="Y933" s="1"/>
-      <c r="Z933" s="1"/>
-    </row>
-    <row r="934" ht="17.25" customHeight="1">
-      <c r="A934" s="1"/>
-      <c r="B934" s="1"/>
-      <c r="C934" s="1"/>
-      <c r="D934" s="1"/>
-      <c r="E934" s="1"/>
-      <c r="F934" s="1"/>
-      <c r="G934" s="1"/>
-      <c r="H934" s="1"/>
-      <c r="I934" s="1"/>
-      <c r="J934" s="1"/>
-      <c r="K934" s="1"/>
-      <c r="L934" s="1"/>
-      <c r="M934" s="1"/>
-      <c r="N934" s="1"/>
-      <c r="O934" s="1"/>
-      <c r="P934" s="1"/>
-      <c r="Q934" s="1"/>
-      <c r="R934" s="1"/>
-      <c r="S934" s="1"/>
-      <c r="T934" s="1"/>
-      <c r="U934" s="1"/>
-      <c r="V934" s="1"/>
-      <c r="W934" s="1"/>
-      <c r="X934" s="1"/>
-      <c r="Y934" s="1"/>
-      <c r="Z934" s="1"/>
-    </row>
-    <row r="935" ht="17.25" customHeight="1">
-      <c r="A935" s="1"/>
-      <c r="B935" s="1"/>
-      <c r="C935" s="1"/>
-      <c r="D935" s="1"/>
-      <c r="E935" s="1"/>
-      <c r="F935" s="1"/>
-      <c r="G935" s="1"/>
-      <c r="H935" s="1"/>
-      <c r="I935" s="1"/>
-      <c r="J935" s="1"/>
-      <c r="K935" s="1"/>
-      <c r="L935" s="1"/>
-      <c r="M935" s="1"/>
-      <c r="N935" s="1"/>
-      <c r="O935" s="1"/>
-      <c r="P935" s="1"/>
-      <c r="Q935" s="1"/>
-      <c r="R935" s="1"/>
-      <c r="S935" s="1"/>
-      <c r="T935" s="1"/>
-      <c r="U935" s="1"/>
-      <c r="V935" s="1"/>
-      <c r="W935" s="1"/>
-      <c r="X935" s="1"/>
-      <c r="Y935" s="1"/>
-      <c r="Z935" s="1"/>
-    </row>
-    <row r="936" ht="17.25" customHeight="1">
-      <c r="A936" s="1"/>
-      <c r="B936" s="1"/>
-      <c r="C936" s="1"/>
-      <c r="D936" s="1"/>
-      <c r="E936" s="1"/>
-      <c r="F936" s="1"/>
-      <c r="G936" s="1"/>
-      <c r="H936" s="1"/>
-      <c r="I936" s="1"/>
-      <c r="J936" s="1"/>
-      <c r="K936" s="1"/>
-      <c r="L936" s="1"/>
-      <c r="M936" s="1"/>
-      <c r="N936" s="1"/>
-      <c r="O936" s="1"/>
-      <c r="P936" s="1"/>
-      <c r="Q936" s="1"/>
-      <c r="R936" s="1"/>
-      <c r="S936" s="1"/>
-      <c r="T936" s="1"/>
-      <c r="U936" s="1"/>
-      <c r="V936" s="1"/>
-      <c r="W936" s="1"/>
-      <c r="X936" s="1"/>
-      <c r="Y936" s="1"/>
-      <c r="Z936" s="1"/>
-    </row>
-    <row r="937" ht="17.25" customHeight="1">
-      <c r="A937" s="1"/>
-      <c r="B937" s="1"/>
-      <c r="C937" s="1"/>
-      <c r="D937" s="1"/>
-      <c r="E937" s="1"/>
-      <c r="F937" s="1"/>
-      <c r="G937" s="1"/>
-      <c r="H937" s="1"/>
-      <c r="I937" s="1"/>
-      <c r="J937" s="1"/>
-      <c r="K937" s="1"/>
-      <c r="L937" s="1"/>
-      <c r="M937" s="1"/>
-      <c r="N937" s="1"/>
-      <c r="O937" s="1"/>
-      <c r="P937" s="1"/>
-      <c r="Q937" s="1"/>
-      <c r="R937" s="1"/>
-      <c r="S937" s="1"/>
-      <c r="T937" s="1"/>
-      <c r="U937" s="1"/>
-      <c r="V937" s="1"/>
-      <c r="W937" s="1"/>
-      <c r="X937" s="1"/>
-      <c r="Y937" s="1"/>
-      <c r="Z937" s="1"/>
-    </row>
-    <row r="938" ht="17.25" customHeight="1">
-      <c r="A938" s="1"/>
-      <c r="B938" s="1"/>
-      <c r="C938" s="1"/>
-      <c r="D938" s="1"/>
-      <c r="E938" s="1"/>
-      <c r="F938" s="1"/>
-      <c r="G938" s="1"/>
-      <c r="H938" s="1"/>
-      <c r="I938" s="1"/>
-      <c r="J938" s="1"/>
-      <c r="K938" s="1"/>
-      <c r="L938" s="1"/>
-      <c r="M938" s="1"/>
-      <c r="N938" s="1"/>
-      <c r="O938" s="1"/>
-      <c r="P938" s="1"/>
-      <c r="Q938" s="1"/>
-      <c r="R938" s="1"/>
-      <c r="S938" s="1"/>
-      <c r="T938" s="1"/>
-      <c r="U938" s="1"/>
-      <c r="V938" s="1"/>
-      <c r="W938" s="1"/>
-      <c r="X938" s="1"/>
-      <c r="Y938" s="1"/>
-      <c r="Z938" s="1"/>
-    </row>
-    <row r="939" ht="17.25" customHeight="1">
-      <c r="A939" s="1"/>
-      <c r="B939" s="1"/>
-      <c r="C939" s="1"/>
-      <c r="D939" s="1"/>
-      <c r="E939" s="1"/>
-      <c r="F939" s="1"/>
-      <c r="G939" s="1"/>
-      <c r="H939" s="1"/>
-      <c r="I939" s="1"/>
-      <c r="J939" s="1"/>
-      <c r="K939" s="1"/>
-      <c r="L939" s="1"/>
-      <c r="M939" s="1"/>
-      <c r="N939" s="1"/>
-      <c r="O939" s="1"/>
-      <c r="P939" s="1"/>
-      <c r="Q939" s="1"/>
-      <c r="R939" s="1"/>
-      <c r="S939" s="1"/>
-      <c r="T939" s="1"/>
-      <c r="U939" s="1"/>
-      <c r="V939" s="1"/>
-      <c r="W939" s="1"/>
-      <c r="X939" s="1"/>
-      <c r="Y939" s="1"/>
-      <c r="Z939" s="1"/>
-    </row>
-    <row r="940" ht="17.25" customHeight="1">
-      <c r="A940" s="1"/>
-      <c r="B940" s="1"/>
-      <c r="C940" s="1"/>
-      <c r="D940" s="1"/>
-      <c r="E940" s="1"/>
-      <c r="F940" s="1"/>
-      <c r="G940" s="1"/>
-      <c r="H940" s="1"/>
-      <c r="I940" s="1"/>
-      <c r="J940" s="1"/>
-      <c r="K940" s="1"/>
-      <c r="L940" s="1"/>
-      <c r="M940" s="1"/>
-      <c r="N940" s="1"/>
-      <c r="O940" s="1"/>
-      <c r="P940" s="1"/>
-      <c r="Q940" s="1"/>
-      <c r="R940" s="1"/>
-      <c r="S940" s="1"/>
-      <c r="T940" s="1"/>
-      <c r="U940" s="1"/>
-      <c r="V940" s="1"/>
-      <c r="W940" s="1"/>
-      <c r="X940" s="1"/>
-      <c r="Y940" s="1"/>
-      <c r="Z940" s="1"/>
-    </row>
-    <row r="941" ht="17.25" customHeight="1">
-      <c r="A941" s="1"/>
-      <c r="B941" s="1"/>
-      <c r="C941" s="1"/>
-      <c r="D941" s="1"/>
-      <c r="E941" s="1"/>
-      <c r="F941" s="1"/>
-      <c r="G941" s="1"/>
-      <c r="H941" s="1"/>
-      <c r="I941" s="1"/>
-      <c r="J941" s="1"/>
-      <c r="K941" s="1"/>
-      <c r="L941" s="1"/>
-      <c r="M941" s="1"/>
-      <c r="N941" s="1"/>
-      <c r="O941" s="1"/>
-      <c r="P941" s="1"/>
-      <c r="Q941" s="1"/>
-      <c r="R941" s="1"/>
-      <c r="S941" s="1"/>
-      <c r="T941" s="1"/>
-      <c r="U941" s="1"/>
-      <c r="V941" s="1"/>
-      <c r="W941" s="1"/>
-      <c r="X941" s="1"/>
-      <c r="Y941" s="1"/>
-      <c r="Z941" s="1"/>
-    </row>
-    <row r="942" ht="17.25" customHeight="1">
-      <c r="A942" s="1"/>
-      <c r="B942" s="1"/>
-      <c r="C942" s="1"/>
-      <c r="D942" s="1"/>
-      <c r="E942" s="1"/>
-      <c r="F942" s="1"/>
-      <c r="G942" s="1"/>
-      <c r="H942" s="1"/>
-      <c r="I942" s="1"/>
-      <c r="J942" s="1"/>
-      <c r="K942" s="1"/>
-      <c r="L942" s="1"/>
-      <c r="M942" s="1"/>
-      <c r="N942" s="1"/>
-      <c r="O942" s="1"/>
-      <c r="P942" s="1"/>
-      <c r="Q942" s="1"/>
-      <c r="R942" s="1"/>
-      <c r="S942" s="1"/>
-      <c r="T942" s="1"/>
-      <c r="U942" s="1"/>
-      <c r="V942" s="1"/>
-      <c r="W942" s="1"/>
-      <c r="X942" s="1"/>
-      <c r="Y942" s="1"/>
-      <c r="Z942" s="1"/>
-    </row>
-    <row r="943" ht="17.25" customHeight="1">
-      <c r="A943" s="1"/>
-      <c r="B943" s="1"/>
-      <c r="C943" s="1"/>
-      <c r="D943" s="1"/>
-      <c r="E943" s="1"/>
-      <c r="F943" s="1"/>
-      <c r="G943" s="1"/>
-      <c r="H943" s="1"/>
-      <c r="I943" s="1"/>
-      <c r="J943" s="1"/>
-      <c r="K943" s="1"/>
-      <c r="L943" s="1"/>
-      <c r="M943" s="1"/>
-      <c r="N943" s="1"/>
-      <c r="O943" s="1"/>
-      <c r="P943" s="1"/>
-      <c r="Q943" s="1"/>
-      <c r="R943" s="1"/>
-      <c r="S943" s="1"/>
-      <c r="T943" s="1"/>
-      <c r="U943" s="1"/>
-      <c r="V943" s="1"/>
-      <c r="W943" s="1"/>
-      <c r="X943" s="1"/>
-      <c r="Y943" s="1"/>
-      <c r="Z943" s="1"/>
-    </row>
-    <row r="944" ht="17.25" customHeight="1">
-      <c r="A944" s="1"/>
-      <c r="B944" s="1"/>
-      <c r="C944" s="1"/>
-      <c r="D944" s="1"/>
-      <c r="E944" s="1"/>
-      <c r="F944" s="1"/>
-      <c r="G944" s="1"/>
-      <c r="H944" s="1"/>
-      <c r="I944" s="1"/>
-      <c r="J944" s="1"/>
-      <c r="K944" s="1"/>
-      <c r="L944" s="1"/>
-      <c r="M944" s="1"/>
-      <c r="N944" s="1"/>
-      <c r="O944" s="1"/>
-      <c r="P944" s="1"/>
-      <c r="Q944" s="1"/>
-      <c r="R944" s="1"/>
-      <c r="S944" s="1"/>
-      <c r="T944" s="1"/>
-      <c r="U944" s="1"/>
-      <c r="V944" s="1"/>
-      <c r="W944" s="1"/>
-      <c r="X944" s="1"/>
-      <c r="Y944" s="1"/>
-      <c r="Z944" s="1"/>
-    </row>
-    <row r="945" ht="17.25" customHeight="1">
-      <c r="A945" s="1"/>
-      <c r="B945" s="1"/>
-      <c r="C945" s="1"/>
-      <c r="D945" s="1"/>
-      <c r="E945" s="1"/>
-      <c r="F945" s="1"/>
-      <c r="G945" s="1"/>
-      <c r="H945" s="1"/>
-      <c r="I945" s="1"/>
-      <c r="J945" s="1"/>
-      <c r="K945" s="1"/>
-      <c r="L945" s="1"/>
-      <c r="M945" s="1"/>
-      <c r="N945" s="1"/>
-      <c r="O945" s="1"/>
-      <c r="P945" s="1"/>
-      <c r="Q945" s="1"/>
-      <c r="R945" s="1"/>
-      <c r="S945" s="1"/>
-      <c r="T945" s="1"/>
-      <c r="U945" s="1"/>
-      <c r="V945" s="1"/>
-      <c r="W945" s="1"/>
-      <c r="X945" s="1"/>
-      <c r="Y945" s="1"/>
-      <c r="Z945" s="1"/>
-    </row>
-    <row r="946" ht="17.25" customHeight="1">
-      <c r="A946" s="1"/>
-      <c r="B946" s="1"/>
-      <c r="C946" s="1"/>
-      <c r="D946" s="1"/>
-      <c r="E946" s="1"/>
-      <c r="F946" s="1"/>
-      <c r="G946" s="1"/>
-      <c r="H946" s="1"/>
-      <c r="I946" s="1"/>
-      <c r="J946" s="1"/>
-      <c r="K946" s="1"/>
-      <c r="L946" s="1"/>
-      <c r="M946" s="1"/>
-      <c r="N946" s="1"/>
-      <c r="O946" s="1"/>
-      <c r="P946" s="1"/>
-      <c r="Q946" s="1"/>
-      <c r="R946" s="1"/>
-      <c r="S946" s="1"/>
-      <c r="T946" s="1"/>
-      <c r="U946" s="1"/>
-      <c r="V946" s="1"/>
-      <c r="W946" s="1"/>
-      <c r="X946" s="1"/>
-      <c r="Y946" s="1"/>
-      <c r="Z946" s="1"/>
-    </row>
-    <row r="947" ht="17.25" customHeight="1">
-      <c r="A947" s="1"/>
-      <c r="B947" s="1"/>
-      <c r="C947" s="1"/>
-      <c r="D947" s="1"/>
-      <c r="E947" s="1"/>
-      <c r="F947" s="1"/>
-      <c r="G947" s="1"/>
-      <c r="H947" s="1"/>
-      <c r="I947" s="1"/>
-      <c r="J947" s="1"/>
-      <c r="K947" s="1"/>
-      <c r="L947" s="1"/>
-      <c r="M947" s="1"/>
-      <c r="N947" s="1"/>
-      <c r="O947" s="1"/>
-      <c r="P947" s="1"/>
-      <c r="Q947" s="1"/>
-      <c r="R947" s="1"/>
-      <c r="S947" s="1"/>
-      <c r="T947" s="1"/>
-      <c r="U947" s="1"/>
-      <c r="V947" s="1"/>
-      <c r="W947" s="1"/>
-      <c r="X947" s="1"/>
-      <c r="Y947" s="1"/>
-      <c r="Z947" s="1"/>
-    </row>
-    <row r="948" ht="17.25" customHeight="1">
-      <c r="A948" s="1"/>
-      <c r="B948" s="1"/>
-      <c r="C948" s="1"/>
-      <c r="D948" s="1"/>
-      <c r="E948" s="1"/>
-      <c r="F948" s="1"/>
-      <c r="G948" s="1"/>
-      <c r="H948" s="1"/>
-      <c r="I948" s="1"/>
-      <c r="J948" s="1"/>
-      <c r="K948" s="1"/>
-      <c r="L948" s="1"/>
-      <c r="M948" s="1"/>
-      <c r="N948" s="1"/>
-      <c r="O948" s="1"/>
-      <c r="P948" s="1"/>
-      <c r="Q948" s="1"/>
-      <c r="R948" s="1"/>
-      <c r="S948" s="1"/>
-      <c r="T948" s="1"/>
-      <c r="U948" s="1"/>
-      <c r="V948" s="1"/>
-      <c r="W948" s="1"/>
-      <c r="X948" s="1"/>
-      <c r="Y948" s="1"/>
-      <c r="Z948" s="1"/>
-    </row>
-    <row r="949" ht="17.25" customHeight="1">
-      <c r="A949" s="1"/>
-      <c r="B949" s="1"/>
-      <c r="C949" s="1"/>
-      <c r="D949" s="1"/>
-      <c r="E949" s="1"/>
-      <c r="F949" s="1"/>
-      <c r="G949" s="1"/>
-      <c r="H949" s="1"/>
-      <c r="I949" s="1"/>
-      <c r="J949" s="1"/>
-      <c r="K949" s="1"/>
-      <c r="L949" s="1"/>
-      <c r="M949" s="1"/>
-      <c r="N949" s="1"/>
-      <c r="O949" s="1"/>
-      <c r="P949" s="1"/>
-      <c r="Q949" s="1"/>
-      <c r="R949" s="1"/>
-      <c r="S949" s="1"/>
-      <c r="T949" s="1"/>
-      <c r="U949" s="1"/>
-      <c r="V949" s="1"/>
-      <c r="W949" s="1"/>
-      <c r="X949" s="1"/>
-      <c r="Y949" s="1"/>
-      <c r="Z949" s="1"/>
-    </row>
-    <row r="950" ht="17.25" customHeight="1">
-      <c r="A950" s="1"/>
-      <c r="B950" s="1"/>
-      <c r="C950" s="1"/>
-      <c r="D950" s="1"/>
-      <c r="E950" s="1"/>
-      <c r="F950" s="1"/>
-      <c r="G950" s="1"/>
-      <c r="H950" s="1"/>
-      <c r="I950" s="1"/>
-      <c r="J950" s="1"/>
-      <c r="K950" s="1"/>
-      <c r="L950" s="1"/>
-      <c r="M950" s="1"/>
-      <c r="N950" s="1"/>
-      <c r="O950" s="1"/>
-      <c r="P950" s="1"/>
-      <c r="Q950" s="1"/>
-      <c r="R950" s="1"/>
-      <c r="S950" s="1"/>
-      <c r="T950" s="1"/>
-      <c r="U950" s="1"/>
-      <c r="V950" s="1"/>
-      <c r="W950" s="1"/>
-      <c r="X950" s="1"/>
-      <c r="Y950" s="1"/>
-      <c r="Z950" s="1"/>
-    </row>
-    <row r="951" ht="17.25" customHeight="1">
-      <c r="A951" s="1"/>
-      <c r="B951" s="1"/>
-      <c r="C951" s="1"/>
-      <c r="D951" s="1"/>
-      <c r="E951" s="1"/>
-      <c r="F951" s="1"/>
-      <c r="G951" s="1"/>
-      <c r="H951" s="1"/>
-      <c r="I951" s="1"/>
-      <c r="J951" s="1"/>
-      <c r="K951" s="1"/>
-      <c r="L951" s="1"/>
-      <c r="M951" s="1"/>
-      <c r="N951" s="1"/>
-      <c r="O951" s="1"/>
-      <c r="P951" s="1"/>
-      <c r="Q951" s="1"/>
-      <c r="R951" s="1"/>
-      <c r="S951" s="1"/>
-      <c r="T951" s="1"/>
-      <c r="U951" s="1"/>
-      <c r="V951" s="1"/>
-      <c r="W951" s="1"/>
-      <c r="X951" s="1"/>
-      <c r="Y951" s="1"/>
-      <c r="Z951" s="1"/>
-    </row>
-    <row r="952" ht="17.25" customHeight="1">
-      <c r="A952" s="1"/>
-      <c r="B952" s="1"/>
-      <c r="C952" s="1"/>
-      <c r="D952" s="1"/>
-      <c r="E952" s="1"/>
-      <c r="F952" s="1"/>
-      <c r="G952" s="1"/>
-      <c r="H952" s="1"/>
-      <c r="I952" s="1"/>
-      <c r="J952" s="1"/>
-      <c r="K952" s="1"/>
-      <c r="L952" s="1"/>
-      <c r="M952" s="1"/>
-      <c r="N952" s="1"/>
-      <c r="O952" s="1"/>
-      <c r="P952" s="1"/>
-      <c r="Q952" s="1"/>
-      <c r="R952" s="1"/>
-      <c r="S952" s="1"/>
-      <c r="T952" s="1"/>
-      <c r="U952" s="1"/>
-      <c r="V952" s="1"/>
-      <c r="W952" s="1"/>
-      <c r="X952" s="1"/>
-      <c r="Y952" s="1"/>
-      <c r="Z952" s="1"/>
-    </row>
-    <row r="953" ht="17.25" customHeight="1">
-      <c r="A953" s="1"/>
-      <c r="B953" s="1"/>
-      <c r="C953" s="1"/>
-      <c r="D953" s="1"/>
-      <c r="E953" s="1"/>
-      <c r="F953" s="1"/>
-      <c r="G953" s="1"/>
-      <c r="H953" s="1"/>
-      <c r="I953" s="1"/>
-      <c r="J953" s="1"/>
-      <c r="K953" s="1"/>
-      <c r="L953" s="1"/>
-      <c r="M953" s="1"/>
-      <c r="N953" s="1"/>
-      <c r="O953" s="1"/>
-      <c r="P953" s="1"/>
-      <c r="Q953" s="1"/>
-      <c r="R953" s="1"/>
-      <c r="S953" s="1"/>
-      <c r="T953" s="1"/>
-      <c r="U953" s="1"/>
-      <c r="V953" s="1"/>
-      <c r="W953" s="1"/>
-      <c r="X953" s="1"/>
-      <c r="Y953" s="1"/>
-      <c r="Z953" s="1"/>
-    </row>
-    <row r="954" ht="17.25" customHeight="1">
-      <c r="A954" s="1"/>
-      <c r="B954" s="1"/>
-      <c r="C954" s="1"/>
-      <c r="D954" s="1"/>
-      <c r="E954" s="1"/>
-      <c r="F954" s="1"/>
-      <c r="G954" s="1"/>
-      <c r="H954" s="1"/>
-      <c r="I954" s="1"/>
-      <c r="J954" s="1"/>
-      <c r="K954" s="1"/>
-      <c r="L954" s="1"/>
-      <c r="M954" s="1"/>
-      <c r="N954" s="1"/>
-      <c r="O954" s="1"/>
-      <c r="P954" s="1"/>
-      <c r="Q954" s="1"/>
-      <c r="R954" s="1"/>
-      <c r="S954" s="1"/>
-      <c r="T954" s="1"/>
-      <c r="U954" s="1"/>
-      <c r="V954" s="1"/>
-      <c r="W954" s="1"/>
-      <c r="X954" s="1"/>
-      <c r="Y954" s="1"/>
-      <c r="Z954" s="1"/>
-    </row>
-    <row r="955" ht="17.25" customHeight="1">
-      <c r="A955" s="1"/>
-      <c r="B955" s="1"/>
-      <c r="C955" s="1"/>
-      <c r="D955" s="1"/>
-      <c r="E955" s="1"/>
-      <c r="F955" s="1"/>
-      <c r="G955" s="1"/>
-      <c r="H955" s="1"/>
-      <c r="I955" s="1"/>
-      <c r="J955" s="1"/>
-      <c r="K955" s="1"/>
-      <c r="L955" s="1"/>
-      <c r="M955" s="1"/>
-      <c r="N955" s="1"/>
-      <c r="O955" s="1"/>
-      <c r="P955" s="1"/>
-      <c r="Q955" s="1"/>
-      <c r="R955" s="1"/>
-      <c r="S955" s="1"/>
-      <c r="T955" s="1"/>
-      <c r="U955" s="1"/>
-      <c r="V955" s="1"/>
-      <c r="W955" s="1"/>
-      <c r="X955" s="1"/>
-      <c r="Y955" s="1"/>
-      <c r="Z955" s="1"/>
-    </row>
-    <row r="956" ht="17.25" customHeight="1">
-      <c r="A956" s="1"/>
-      <c r="B956" s="1"/>
-      <c r="C956" s="1"/>
-      <c r="D956" s="1"/>
-      <c r="E956" s="1"/>
-      <c r="F956" s="1"/>
-      <c r="G956" s="1"/>
-      <c r="H956" s="1"/>
-      <c r="I956" s="1"/>
-      <c r="J956" s="1"/>
-      <c r="K956" s="1"/>
-      <c r="L956" s="1"/>
-      <c r="M956" s="1"/>
-      <c r="N956" s="1"/>
-      <c r="O956" s="1"/>
-      <c r="P956" s="1"/>
-      <c r="Q956" s="1"/>
-      <c r="R956" s="1"/>
-      <c r="S956" s="1"/>
-      <c r="T956" s="1"/>
-      <c r="U956" s="1"/>
-      <c r="V956" s="1"/>
-      <c r="W956" s="1"/>
-      <c r="X956" s="1"/>
-      <c r="Y956" s="1"/>
-      <c r="Z956" s="1"/>
-    </row>
-    <row r="957" ht="17.25" customHeight="1">
-      <c r="A957" s="1"/>
-      <c r="B957" s="1"/>
-      <c r="C957" s="1"/>
-      <c r="D957" s="1"/>
-      <c r="E957" s="1"/>
-      <c r="F957" s="1"/>
-      <c r="G957" s="1"/>
-      <c r="H957" s="1"/>
-      <c r="I957" s="1"/>
-      <c r="J957" s="1"/>
-      <c r="K957" s="1"/>
-      <c r="L957" s="1"/>
-      <c r="M957" s="1"/>
-      <c r="N957" s="1"/>
-      <c r="O957" s="1"/>
-      <c r="P957" s="1"/>
-      <c r="Q957" s="1"/>
-      <c r="R957" s="1"/>
-      <c r="S957" s="1"/>
-      <c r="T957" s="1"/>
-      <c r="U957" s="1"/>
-      <c r="V957" s="1"/>
-      <c r="W957" s="1"/>
-      <c r="X957" s="1"/>
-      <c r="Y957" s="1"/>
-      <c r="Z957" s="1"/>
-    </row>
-    <row r="958" ht="17.25" customHeight="1">
-      <c r="A958" s="1"/>
-      <c r="B958" s="1"/>
-      <c r="C958" s="1"/>
-      <c r="D958" s="1"/>
-      <c r="E958" s="1"/>
-      <c r="F958" s="1"/>
-      <c r="G958" s="1"/>
-      <c r="H958" s="1"/>
-      <c r="I958" s="1"/>
-      <c r="J958" s="1"/>
-      <c r="K958" s="1"/>
-      <c r="L958" s="1"/>
-      <c r="M958" s="1"/>
-      <c r="N958" s="1"/>
-      <c r="O958" s="1"/>
-      <c r="P958" s="1"/>
-      <c r="Q958" s="1"/>
-      <c r="R958" s="1"/>
-      <c r="S958" s="1"/>
-      <c r="T958" s="1"/>
-      <c r="U958" s="1"/>
-      <c r="V958" s="1"/>
-      <c r="W958" s="1"/>
-      <c r="X958" s="1"/>
-      <c r="Y958" s="1"/>
-      <c r="Z958" s="1"/>
-    </row>
-    <row r="959" ht="17.25" customHeight="1">
-      <c r="A959" s="1"/>
-      <c r="B959" s="1"/>
-      <c r="C959" s="1"/>
-      <c r="D959" s="1"/>
-      <c r="E959" s="1"/>
-      <c r="F959" s="1"/>
-      <c r="G959" s="1"/>
-      <c r="H959" s="1"/>
-      <c r="I959" s="1"/>
-      <c r="J959" s="1"/>
-      <c r="K959" s="1"/>
-      <c r="L959" s="1"/>
-      <c r="M959" s="1"/>
-      <c r="N959" s="1"/>
-      <c r="O959" s="1"/>
-      <c r="P959" s="1"/>
-      <c r="Q959" s="1"/>
-      <c r="R959" s="1"/>
-      <c r="S959" s="1"/>
-      <c r="T959" s="1"/>
-      <c r="U959" s="1"/>
-      <c r="V959" s="1"/>
-      <c r="W959" s="1"/>
-      <c r="X959" s="1"/>
-      <c r="Y959" s="1"/>
-      <c r="Z959" s="1"/>
-    </row>
-    <row r="960" ht="17.25" customHeight="1">
-      <c r="A960" s="1"/>
-      <c r="B960" s="1"/>
-      <c r="C960" s="1"/>
-      <c r="D960" s="1"/>
-      <c r="E960" s="1"/>
-      <c r="F960" s="1"/>
-      <c r="G960" s="1"/>
-      <c r="H960" s="1"/>
-      <c r="I960" s="1"/>
-      <c r="J960" s="1"/>
-      <c r="K960" s="1"/>
-      <c r="L960" s="1"/>
-      <c r="M960" s="1"/>
-      <c r="N960" s="1"/>
-      <c r="O960" s="1"/>
-      <c r="P960" s="1"/>
-      <c r="Q960" s="1"/>
-      <c r="R960" s="1"/>
-      <c r="S960" s="1"/>
-      <c r="T960" s="1"/>
-      <c r="U960" s="1"/>
-      <c r="V960" s="1"/>
-      <c r="W960" s="1"/>
-      <c r="X960" s="1"/>
-      <c r="Y960" s="1"/>
-      <c r="Z960" s="1"/>
-    </row>
-    <row r="961" ht="17.25" customHeight="1">
-      <c r="A961" s="1"/>
-      <c r="B961" s="1"/>
-      <c r="C961" s="1"/>
-      <c r="D961" s="1"/>
-      <c r="E961" s="1"/>
-      <c r="F961" s="1"/>
-      <c r="G961" s="1"/>
-      <c r="H961" s="1"/>
-      <c r="I961" s="1"/>
-      <c r="J961" s="1"/>
-      <c r="K961" s="1"/>
-      <c r="L961" s="1"/>
-      <c r="M961" s="1"/>
-      <c r="N961" s="1"/>
-      <c r="O961" s="1"/>
-      <c r="P961" s="1"/>
-      <c r="Q961" s="1"/>
-      <c r="R961" s="1"/>
-      <c r="S961" s="1"/>
-      <c r="T961" s="1"/>
-      <c r="U961" s="1"/>
-      <c r="V961" s="1"/>
-      <c r="W961" s="1"/>
-      <c r="X961" s="1"/>
-      <c r="Y961" s="1"/>
-      <c r="Z961" s="1"/>
-    </row>
-    <row r="962" ht="17.25" customHeight="1">
-      <c r="A962" s="1"/>
-      <c r="B962" s="1"/>
-      <c r="C962" s="1"/>
-      <c r="D962" s="1"/>
-      <c r="E962" s="1"/>
-      <c r="F962" s="1"/>
-      <c r="G962" s="1"/>
-      <c r="H962" s="1"/>
-      <c r="I962" s="1"/>
-      <c r="J962" s="1"/>
-      <c r="K962" s="1"/>
-      <c r="L962" s="1"/>
-      <c r="M962" s="1"/>
-      <c r="N962" s="1"/>
-      <c r="O962" s="1"/>
-      <c r="P962" s="1"/>
-      <c r="Q962" s="1"/>
-      <c r="R962" s="1"/>
-      <c r="S962" s="1"/>
-      <c r="T962" s="1"/>
-      <c r="U962" s="1"/>
-      <c r="V962" s="1"/>
-      <c r="W962" s="1"/>
-      <c r="X962" s="1"/>
-      <c r="Y962" s="1"/>
-      <c r="Z962" s="1"/>
-    </row>
-    <row r="963" ht="17.25" customHeight="1">
-      <c r="A963" s="1"/>
-      <c r="B963" s="1"/>
-      <c r="C963" s="1"/>
-      <c r="D963" s="1"/>
-      <c r="E963" s="1"/>
-      <c r="F963" s="1"/>
-      <c r="G963" s="1"/>
-      <c r="H963" s="1"/>
-      <c r="I963" s="1"/>
-      <c r="J963" s="1"/>
-      <c r="K963" s="1"/>
-      <c r="L963" s="1"/>
-      <c r="M963" s="1"/>
-      <c r="N963" s="1"/>
-      <c r="O963" s="1"/>
-      <c r="P963" s="1"/>
-      <c r="Q963" s="1"/>
-      <c r="R963" s="1"/>
-      <c r="S963" s="1"/>
-      <c r="T963" s="1"/>
-      <c r="U963" s="1"/>
-      <c r="V963" s="1"/>
-      <c r="W963" s="1"/>
-      <c r="X963" s="1"/>
-      <c r="Y963" s="1"/>
-      <c r="Z963" s="1"/>
-    </row>
-    <row r="964" ht="17.25" customHeight="1">
-      <c r="A964" s="1"/>
-      <c r="B964" s="1"/>
-      <c r="C964" s="1"/>
-      <c r="D964" s="1"/>
-      <c r="E964" s="1"/>
-      <c r="F964" s="1"/>
-      <c r="G964" s="1"/>
-      <c r="H964" s="1"/>
-      <c r="I964" s="1"/>
-      <c r="J964" s="1"/>
-      <c r="K964" s="1"/>
-      <c r="L964" s="1"/>
-      <c r="M964" s="1"/>
-      <c r="N964" s="1"/>
-      <c r="O964" s="1"/>
-      <c r="P964" s="1"/>
-      <c r="Q964" s="1"/>
-      <c r="R964" s="1"/>
-      <c r="S964" s="1"/>
-      <c r="T964" s="1"/>
-      <c r="U964" s="1"/>
-      <c r="V964" s="1"/>
-      <c r="W964" s="1"/>
-      <c r="X964" s="1"/>
-      <c r="Y964" s="1"/>
-      <c r="Z964" s="1"/>
-    </row>
-    <row r="965" ht="17.25" customHeight="1">
-      <c r="A965" s="1"/>
-      <c r="B965" s="1"/>
-      <c r="C965" s="1"/>
-      <c r="D965" s="1"/>
-      <c r="E965" s="1"/>
-      <c r="F965" s="1"/>
-      <c r="G965" s="1"/>
-      <c r="H965" s="1"/>
-      <c r="I965" s="1"/>
-      <c r="J965" s="1"/>
-      <c r="K965" s="1"/>
-      <c r="L965" s="1"/>
-      <c r="M965" s="1"/>
-      <c r="N965" s="1"/>
-      <c r="O965" s="1"/>
-      <c r="P965" s="1"/>
-      <c r="Q965" s="1"/>
-      <c r="R965" s="1"/>
-      <c r="S965" s="1"/>
-      <c r="T965" s="1"/>
-      <c r="U965" s="1"/>
-      <c r="V965" s="1"/>
-      <c r="W965" s="1"/>
-      <c r="X965" s="1"/>
-      <c r="Y965" s="1"/>
-      <c r="Z965" s="1"/>
-    </row>
-    <row r="966" ht="17.25" customHeight="1">
-      <c r="A966" s="1"/>
-      <c r="B966" s="1"/>
-      <c r="C966" s="1"/>
-      <c r="D966" s="1"/>
-      <c r="E966" s="1"/>
-      <c r="F966" s="1"/>
-      <c r="G966" s="1"/>
-      <c r="H966" s="1"/>
-      <c r="I966" s="1"/>
-      <c r="J966" s="1"/>
-      <c r="K966" s="1"/>
-      <c r="L966" s="1"/>
-      <c r="M966" s="1"/>
-      <c r="N966" s="1"/>
-      <c r="O966" s="1"/>
-      <c r="P966" s="1"/>
-      <c r="Q966" s="1"/>
-      <c r="R966" s="1"/>
-      <c r="S966" s="1"/>
-      <c r="T966" s="1"/>
-      <c r="U966" s="1"/>
-      <c r="V966" s="1"/>
-      <c r="W966" s="1"/>
-      <c r="X966" s="1"/>
-      <c r="Y966" s="1"/>
-      <c r="Z966" s="1"/>
-    </row>
-    <row r="967" ht="17.25" customHeight="1">
-      <c r="A967" s="1"/>
-      <c r="B967" s="1"/>
-      <c r="C967" s="1"/>
-      <c r="D967" s="1"/>
-      <c r="E967" s="1"/>
-      <c r="F967" s="1"/>
-      <c r="G967" s="1"/>
-      <c r="H967" s="1"/>
-      <c r="I967" s="1"/>
-      <c r="J967" s="1"/>
-      <c r="K967" s="1"/>
-      <c r="L967" s="1"/>
-      <c r="M967" s="1"/>
-      <c r="N967" s="1"/>
-      <c r="O967" s="1"/>
-      <c r="P967" s="1"/>
-      <c r="Q967" s="1"/>
-      <c r="R967" s="1"/>
-      <c r="S967" s="1"/>
-      <c r="T967" s="1"/>
-      <c r="U967" s="1"/>
-      <c r="V967" s="1"/>
-      <c r="W967" s="1"/>
-      <c r="X967" s="1"/>
-      <c r="Y967" s="1"/>
-      <c r="Z967" s="1"/>
-    </row>
-    <row r="968" ht="17.25" customHeight="1">
-      <c r="A968" s="1"/>
-      <c r="B968" s="1"/>
-      <c r="C968" s="1"/>
-      <c r="D968" s="1"/>
-      <c r="E968" s="1"/>
-      <c r="F968" s="1"/>
-      <c r="G968" s="1"/>
-      <c r="H968" s="1"/>
-      <c r="I968" s="1"/>
-      <c r="J968" s="1"/>
-      <c r="K968" s="1"/>
-      <c r="L968" s="1"/>
-      <c r="M968" s="1"/>
-      <c r="N968" s="1"/>
-      <c r="O968" s="1"/>
-      <c r="P968" s="1"/>
-      <c r="Q968" s="1"/>
-      <c r="R968" s="1"/>
-      <c r="S968" s="1"/>
-      <c r="T968" s="1"/>
-      <c r="U968" s="1"/>
-      <c r="V968" s="1"/>
-      <c r="W968" s="1"/>
-      <c r="X968" s="1"/>
-      <c r="Y968" s="1"/>
-      <c r="Z968" s="1"/>
-    </row>
-    <row r="969" ht="17.25" customHeight="1">
-      <c r="A969" s="1"/>
-      <c r="B969" s="1"/>
-      <c r="C969" s="1"/>
-      <c r="D969" s="1"/>
-      <c r="E969" s="1"/>
-      <c r="F969" s="1"/>
-      <c r="G969" s="1"/>
-      <c r="H969" s="1"/>
-      <c r="I969" s="1"/>
-      <c r="J969" s="1"/>
-      <c r="K969" s="1"/>
-      <c r="L969" s="1"/>
-      <c r="M969" s="1"/>
-      <c r="N969" s="1"/>
-      <c r="O969" s="1"/>
-      <c r="P969" s="1"/>
-      <c r="Q969" s="1"/>
-      <c r="R969" s="1"/>
-      <c r="S969" s="1"/>
-      <c r="T969" s="1"/>
-      <c r="U969" s="1"/>
-      <c r="V969" s="1"/>
-      <c r="W969" s="1"/>
-      <c r="X969" s="1"/>
-      <c r="Y969" s="1"/>
-      <c r="Z969" s="1"/>
-    </row>
-    <row r="970" ht="17.25" customHeight="1">
-      <c r="A970" s="1"/>
-      <c r="B970" s="1"/>
-      <c r="C970" s="1"/>
-      <c r="D970" s="1"/>
-      <c r="E970" s="1"/>
-      <c r="F970" s="1"/>
-      <c r="G970" s="1"/>
-      <c r="H970" s="1"/>
-      <c r="I970" s="1"/>
-      <c r="J970" s="1"/>
-      <c r="K970" s="1"/>
-      <c r="L970" s="1"/>
-      <c r="M970" s="1"/>
-      <c r="N970" s="1"/>
-      <c r="O970" s="1"/>
-      <c r="P970" s="1"/>
-      <c r="Q970" s="1"/>
-      <c r="R970" s="1"/>
-      <c r="S970" s="1"/>
-      <c r="T970" s="1"/>
-      <c r="U970" s="1"/>
-      <c r="V970" s="1"/>
-      <c r="W970" s="1"/>
-      <c r="X970" s="1"/>
-      <c r="Y970" s="1"/>
-      <c r="Z970" s="1"/>
-    </row>
-    <row r="971" ht="17.25" customHeight="1">
-      <c r="A971" s="1"/>
-      <c r="B971" s="1"/>
-      <c r="C971" s="1"/>
-      <c r="D971" s="1"/>
-      <c r="E971" s="1"/>
-      <c r="F971" s="1"/>
-      <c r="G971" s="1"/>
-      <c r="H971" s="1"/>
-      <c r="I971" s="1"/>
-      <c r="J971" s="1"/>
-      <c r="K971" s="1"/>
-      <c r="L971" s="1"/>
-      <c r="M971" s="1"/>
-      <c r="N971" s="1"/>
-      <c r="O971" s="1"/>
-      <c r="P971" s="1"/>
-      <c r="Q971" s="1"/>
-      <c r="R971" s="1"/>
-      <c r="S971" s="1"/>
-      <c r="T971" s="1"/>
-      <c r="U971" s="1"/>
-      <c r="V971" s="1"/>
-      <c r="W971" s="1"/>
-      <c r="X971" s="1"/>
-      <c r="Y971" s="1"/>
-      <c r="Z971" s="1"/>
-    </row>
-    <row r="972" ht="17.25" customHeight="1">
-      <c r="A972" s="1"/>
-      <c r="B972" s="1"/>
-      <c r="C972" s="1"/>
-      <c r="D972" s="1"/>
-      <c r="E972" s="1"/>
-      <c r="F972" s="1"/>
-      <c r="G972" s="1"/>
-      <c r="H972" s="1"/>
-      <c r="I972" s="1"/>
-      <c r="J972" s="1"/>
-      <c r="K972" s="1"/>
-      <c r="L972" s="1"/>
-      <c r="M972" s="1"/>
-      <c r="N972" s="1"/>
-      <c r="O972" s="1"/>
-      <c r="P972" s="1"/>
-      <c r="Q972" s="1"/>
-      <c r="R972" s="1"/>
-      <c r="S972" s="1"/>
-      <c r="T972" s="1"/>
-      <c r="U972" s="1"/>
-      <c r="V972" s="1"/>
-      <c r="W972" s="1"/>
-      <c r="X972" s="1"/>
-      <c r="Y972" s="1"/>
-      <c r="Z972" s="1"/>
-    </row>
-    <row r="973" ht="17.25" customHeight="1">
-      <c r="A973" s="1"/>
-      <c r="B973" s="1"/>
-      <c r="C973" s="1"/>
-      <c r="D973" s="1"/>
-      <c r="E973" s="1"/>
-      <c r="F973" s="1"/>
-      <c r="G973" s="1"/>
-      <c r="H973" s="1"/>
-      <c r="I973" s="1"/>
-      <c r="J973" s="1"/>
-      <c r="K973" s="1"/>
-      <c r="L973" s="1"/>
-      <c r="M973" s="1"/>
-      <c r="N973" s="1"/>
-      <c r="O973" s="1"/>
-      <c r="P973" s="1"/>
-      <c r="Q973" s="1"/>
-      <c r="R973" s="1"/>
-      <c r="S973" s="1"/>
-      <c r="T973" s="1"/>
-      <c r="U973" s="1"/>
-      <c r="V973" s="1"/>
-      <c r="W973" s="1"/>
-      <c r="X973" s="1"/>
-      <c r="Y973" s="1"/>
-      <c r="Z973" s="1"/>
-    </row>
-    <row r="974" ht="17.25" customHeight="1">
-      <c r="A974" s="1"/>
-      <c r="B974" s="1"/>
-      <c r="C974" s="1"/>
-      <c r="D974" s="1"/>
-      <c r="E974" s="1"/>
-      <c r="F974" s="1"/>
-      <c r="G974" s="1"/>
-      <c r="H974" s="1"/>
-      <c r="I974" s="1"/>
-      <c r="J974" s="1"/>
-      <c r="K974" s="1"/>
-      <c r="L974" s="1"/>
-      <c r="M974" s="1"/>
-      <c r="N974" s="1"/>
-      <c r="O974" s="1"/>
-      <c r="P974" s="1"/>
-      <c r="Q974" s="1"/>
-      <c r="R974" s="1"/>
-      <c r="S974" s="1"/>
-      <c r="T974" s="1"/>
-      <c r="U974" s="1"/>
-      <c r="V974" s="1"/>
-      <c r="W974" s="1"/>
-      <c r="X974" s="1"/>
-      <c r="Y974" s="1"/>
-      <c r="Z974" s="1"/>
-    </row>
-    <row r="975" ht="17.25" customHeight="1">
-      <c r="A975" s="1"/>
-      <c r="B975" s="1"/>
-      <c r="C975" s="1"/>
-      <c r="D975" s="1"/>
-      <c r="E975" s="1"/>
-      <c r="F975" s="1"/>
-      <c r="G975" s="1"/>
-      <c r="H975" s="1"/>
-      <c r="I975" s="1"/>
-      <c r="J975" s="1"/>
-      <c r="K975" s="1"/>
-      <c r="L975" s="1"/>
-      <c r="M975" s="1"/>
-      <c r="N975" s="1"/>
-      <c r="O975" s="1"/>
-      <c r="P975" s="1"/>
-      <c r="Q975" s="1"/>
-      <c r="R975" s="1"/>
-      <c r="S975" s="1"/>
-      <c r="T975" s="1"/>
-      <c r="U975" s="1"/>
-      <c r="V975" s="1"/>
-      <c r="W975" s="1"/>
-      <c r="X975" s="1"/>
-      <c r="Y975" s="1"/>
-      <c r="Z975" s="1"/>
-    </row>
-    <row r="976" ht="17.25" customHeight="1">
-      <c r="A976" s="1"/>
-      <c r="B976" s="1"/>
-      <c r="C976" s="1"/>
-      <c r="D976" s="1"/>
-      <c r="E976" s="1"/>
-      <c r="F976" s="1"/>
-      <c r="G976" s="1"/>
-      <c r="H976" s="1"/>
-      <c r="I976" s="1"/>
-      <c r="J976" s="1"/>
-      <c r="K976" s="1"/>
-      <c r="L976" s="1"/>
-      <c r="M976" s="1"/>
-      <c r="N976" s="1"/>
-      <c r="O976" s="1"/>
-      <c r="P976" s="1"/>
-      <c r="Q976" s="1"/>
-      <c r="R976" s="1"/>
-      <c r="S976" s="1"/>
-      <c r="T976" s="1"/>
-      <c r="U976" s="1"/>
-      <c r="V976" s="1"/>
-      <c r="W976" s="1"/>
-      <c r="X976" s="1"/>
-      <c r="Y976" s="1"/>
-      <c r="Z976" s="1"/>
-    </row>
-    <row r="977" ht="17.25" customHeight="1">
-      <c r="A977" s="1"/>
-      <c r="B977" s="1"/>
-      <c r="C977" s="1"/>
-      <c r="D977" s="1"/>
-      <c r="E977" s="1"/>
-      <c r="F977" s="1"/>
-      <c r="G977" s="1"/>
-      <c r="H977" s="1"/>
-      <c r="I977" s="1"/>
-      <c r="J977" s="1"/>
-      <c r="K977" s="1"/>
-      <c r="L977" s="1"/>
-      <c r="M977" s="1"/>
-      <c r="N977" s="1"/>
-      <c r="O977" s="1"/>
-      <c r="P977" s="1"/>
-      <c r="Q977" s="1"/>
-      <c r="R977" s="1"/>
-      <c r="S977" s="1"/>
-      <c r="T977" s="1"/>
-      <c r="U977" s="1"/>
-      <c r="V977" s="1"/>
-      <c r="W977" s="1"/>
-      <c r="X977" s="1"/>
-      <c r="Y977" s="1"/>
-      <c r="Z977" s="1"/>
-    </row>
-    <row r="978" ht="17.25" customHeight="1">
-      <c r="A978" s="1"/>
-      <c r="B978" s="1"/>
-      <c r="C978" s="1"/>
-      <c r="D978" s="1"/>
-      <c r="E978" s="1"/>
-      <c r="F978" s="1"/>
-      <c r="G978" s="1"/>
-      <c r="H978" s="1"/>
-      <c r="I978" s="1"/>
-      <c r="J978" s="1"/>
-      <c r="K978" s="1"/>
-      <c r="L978" s="1"/>
-      <c r="M978" s="1"/>
-      <c r="N978" s="1"/>
-      <c r="O978" s="1"/>
-      <c r="P978" s="1"/>
-      <c r="Q978" s="1"/>
-      <c r="R978" s="1"/>
-      <c r="S978" s="1"/>
-      <c r="T978" s="1"/>
-      <c r="U978" s="1"/>
-      <c r="V978" s="1"/>
-      <c r="W978" s="1"/>
-      <c r="X978" s="1"/>
-      <c r="Y978" s="1"/>
-      <c r="Z978" s="1"/>
-    </row>
-    <row r="979" ht="17.25" customHeight="1">
-      <c r="A979" s="1"/>
-      <c r="B979" s="1"/>
-      <c r="C979" s="1"/>
-      <c r="D979" s="1"/>
-      <c r="E979" s="1"/>
-      <c r="F979" s="1"/>
-      <c r="G979" s="1"/>
-      <c r="H979" s="1"/>
-      <c r="I979" s="1"/>
-      <c r="J979" s="1"/>
-      <c r="K979" s="1"/>
-      <c r="L979" s="1"/>
-      <c r="M979" s="1"/>
-      <c r="N979" s="1"/>
-      <c r="O979" s="1"/>
-      <c r="P979" s="1"/>
-      <c r="Q979" s="1"/>
-      <c r="R979" s="1"/>
-      <c r="S979" s="1"/>
-      <c r="T979" s="1"/>
-      <c r="U979" s="1"/>
-      <c r="V979" s="1"/>
-      <c r="W979" s="1"/>
-      <c r="X979" s="1"/>
-      <c r="Y979" s="1"/>
-      <c r="Z979" s="1"/>
-    </row>
-    <row r="980" ht="17.25" customHeight="1">
-      <c r="A980" s="1"/>
-      <c r="B980" s="1"/>
-      <c r="C980" s="1"/>
-      <c r="D980" s="1"/>
-      <c r="E980" s="1"/>
-      <c r="F980" s="1"/>
-      <c r="G980" s="1"/>
-      <c r="H980" s="1"/>
-      <c r="I980" s="1"/>
-      <c r="J980" s="1"/>
-      <c r="K980" s="1"/>
-      <c r="L980" s="1"/>
-      <c r="M980" s="1"/>
-      <c r="N980" s="1"/>
-      <c r="O980" s="1"/>
-      <c r="P980" s="1"/>
-      <c r="Q980" s="1"/>
-      <c r="R980" s="1"/>
-      <c r="S980" s="1"/>
-      <c r="T980" s="1"/>
-      <c r="U980" s="1"/>
-      <c r="V980" s="1"/>
-      <c r="W980" s="1"/>
-      <c r="X980" s="1"/>
-      <c r="Y980" s="1"/>
-      <c r="Z980" s="1"/>
-    </row>
-    <row r="981" ht="17.25" customHeight="1">
-      <c r="A981" s="1"/>
-      <c r="B981" s="1"/>
-      <c r="C981" s="1"/>
-      <c r="D981" s="1"/>
-      <c r="E981" s="1"/>
-      <c r="F981" s="1"/>
-      <c r="G981" s="1"/>
-      <c r="H981" s="1"/>
-      <c r="I981" s="1"/>
-      <c r="J981" s="1"/>
-      <c r="K981" s="1"/>
-      <c r="L981" s="1"/>
-      <c r="M981" s="1"/>
-      <c r="N981" s="1"/>
-      <c r="O981" s="1"/>
-      <c r="P981" s="1"/>
-      <c r="Q981" s="1"/>
-      <c r="R981" s="1"/>
-      <c r="S981" s="1"/>
-      <c r="T981" s="1"/>
-      <c r="U981" s="1"/>
-      <c r="V981" s="1"/>
-      <c r="W981" s="1"/>
-      <c r="X981" s="1"/>
-      <c r="Y981" s="1"/>
-      <c r="Z981" s="1"/>
-    </row>
-    <row r="982" ht="17.25" customHeight="1">
-      <c r="A982" s="1"/>
-      <c r="B982" s="1"/>
-      <c r="C982" s="1"/>
-      <c r="D982" s="1"/>
-      <c r="E982" s="1"/>
-      <c r="F982" s="1"/>
-      <c r="G982" s="1"/>
-      <c r="H982" s="1"/>
-      <c r="I982" s="1"/>
-      <c r="J982" s="1"/>
-      <c r="K982" s="1"/>
-      <c r="L982" s="1"/>
-      <c r="M982" s="1"/>
-      <c r="N982" s="1"/>
-      <c r="O982" s="1"/>
-      <c r="P982" s="1"/>
-      <c r="Q982" s="1"/>
-      <c r="R982" s="1"/>
-      <c r="S982" s="1"/>
-      <c r="T982" s="1"/>
-      <c r="U982" s="1"/>
-      <c r="V982" s="1"/>
-      <c r="W982" s="1"/>
-      <c r="X982" s="1"/>
-      <c r="Y982" s="1"/>
-      <c r="Z982" s="1"/>
-    </row>
-    <row r="983" ht="17.25" customHeight="1">
-      <c r="A983" s="1"/>
-      <c r="B983" s="1"/>
-      <c r="C983" s="1"/>
-      <c r="D983" s="1"/>
-      <c r="E983" s="1"/>
-      <c r="F983" s="1"/>
-      <c r="G983" s="1"/>
-      <c r="H983" s="1"/>
-      <c r="I983" s="1"/>
-      <c r="J983" s="1"/>
-      <c r="K983" s="1"/>
-      <c r="L983" s="1"/>
-      <c r="M983" s="1"/>
-      <c r="N983" s="1"/>
-      <c r="O983" s="1"/>
-      <c r="P983" s="1"/>
-      <c r="Q983" s="1"/>
-      <c r="R983" s="1"/>
-      <c r="S983" s="1"/>
-      <c r="T983" s="1"/>
-      <c r="U983" s="1"/>
-      <c r="V983" s="1"/>
-      <c r="W983" s="1"/>
-      <c r="X983" s="1"/>
-      <c r="Y983" s="1"/>
-      <c r="Z983" s="1"/>
-    </row>
-    <row r="984" ht="17.25" customHeight="1">
-      <c r="A984" s="1"/>
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-      <c r="D984" s="1"/>
-      <c r="E984" s="1"/>
-      <c r="F984" s="1"/>
-      <c r="G984" s="1"/>
-      <c r="H984" s="1"/>
-      <c r="I984" s="1"/>
-      <c r="J984" s="1"/>
-      <c r="K984" s="1"/>
-      <c r="L984" s="1"/>
-      <c r="M984" s="1"/>
-      <c r="N984" s="1"/>
-      <c r="O984" s="1"/>
-      <c r="P984" s="1"/>
-      <c r="Q984" s="1"/>
-      <c r="R984" s="1"/>
-      <c r="S984" s="1"/>
-      <c r="T984" s="1"/>
-      <c r="U984" s="1"/>
-      <c r="V984" s="1"/>
-      <c r="W984" s="1"/>
-      <c r="X984" s="1"/>
-      <c r="Y984" s="1"/>
-      <c r="Z984" s="1"/>
-    </row>
-    <row r="985" ht="17.25" customHeight="1">
-      <c r="A985" s="1"/>
-      <c r="B985" s="1"/>
-      <c r="C985" s="1"/>
-      <c r="D985" s="1"/>
-      <c r="E985" s="1"/>
-      <c r="F985" s="1"/>
-      <c r="G985" s="1"/>
-      <c r="H985" s="1"/>
-      <c r="I985" s="1"/>
-      <c r="J985" s="1"/>
-      <c r="K985" s="1"/>
-      <c r="L985" s="1"/>
-      <c r="M985" s="1"/>
-      <c r="N985" s="1"/>
-      <c r="O985" s="1"/>
-      <c r="P985" s="1"/>
-      <c r="Q985" s="1"/>
-      <c r="R985" s="1"/>
-      <c r="S985" s="1"/>
-      <c r="T985" s="1"/>
-      <c r="U985" s="1"/>
-      <c r="V985" s="1"/>
-      <c r="W985" s="1"/>
-      <c r="X985" s="1"/>
-      <c r="Y985" s="1"/>
-      <c r="Z985" s="1"/>
-    </row>
-    <row r="986" ht="17.25" customHeight="1">
-      <c r="A986" s="1"/>
-      <c r="B986" s="1"/>
-      <c r="C986" s="1"/>
-      <c r="D986" s="1"/>
-      <c r="E986" s="1"/>
-      <c r="F986" s="1"/>
-      <c r="G986" s="1"/>
-      <c r="H986" s="1"/>
-      <c r="I986" s="1"/>
-      <c r="J986" s="1"/>
-      <c r="K986" s="1"/>
-      <c r="L986" s="1"/>
-      <c r="M986" s="1"/>
-      <c r="N986" s="1"/>
-      <c r="O986" s="1"/>
-      <c r="P986" s="1"/>
-      <c r="Q986" s="1"/>
-      <c r="R986" s="1"/>
-      <c r="S986" s="1"/>
-      <c r="T986" s="1"/>
-      <c r="U986" s="1"/>
-      <c r="V986" s="1"/>
-      <c r="W986" s="1"/>
-      <c r="X986" s="1"/>
-      <c r="Y986" s="1"/>
-      <c r="Z986" s="1"/>
-    </row>
-    <row r="987" ht="17.25" customHeight="1">
-      <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
-      <c r="C987" s="1"/>
-      <c r="D987" s="1"/>
-      <c r="E987" s="1"/>
-      <c r="F987" s="1"/>
-      <c r="G987" s="1"/>
-      <c r="H987" s="1"/>
-      <c r="I987" s="1"/>
-      <c r="J987" s="1"/>
-      <c r="K987" s="1"/>
-      <c r="L987" s="1"/>
-      <c r="M987" s="1"/>
-      <c r="N987" s="1"/>
-      <c r="O987" s="1"/>
-      <c r="P987" s="1"/>
-      <c r="Q987" s="1"/>
-      <c r="R987" s="1"/>
-      <c r="S987" s="1"/>
-      <c r="T987" s="1"/>
-      <c r="U987" s="1"/>
-      <c r="V987" s="1"/>
-      <c r="W987" s="1"/>
-      <c r="X987" s="1"/>
-      <c r="Y987" s="1"/>
-      <c r="Z987" s="1"/>
-    </row>
-    <row r="988" ht="17.25" customHeight="1">
-      <c r="A988" s="1"/>
-      <c r="B988" s="1"/>
-      <c r="C988" s="1"/>
-      <c r="D988" s="1"/>
-      <c r="E988" s="1"/>
-      <c r="F988" s="1"/>
-      <c r="G988" s="1"/>
-      <c r="H988" s="1"/>
-      <c r="I988" s="1"/>
-      <c r="J988" s="1"/>
-      <c r="K988" s="1"/>
-      <c r="L988" s="1"/>
-      <c r="M988" s="1"/>
-      <c r="N988" s="1"/>
-      <c r="O988" s="1"/>
-      <c r="P988" s="1"/>
-      <c r="Q988" s="1"/>
-      <c r="R988" s="1"/>
-      <c r="S988" s="1"/>
-      <c r="T988" s="1"/>
-      <c r="U988" s="1"/>
-      <c r="V988" s="1"/>
-      <c r="W988" s="1"/>
-      <c r="X988" s="1"/>
-      <c r="Y988" s="1"/>
-      <c r="Z988" s="1"/>
-    </row>
-    <row r="989" ht="17.25" customHeight="1">
-      <c r="A989" s="1"/>
-      <c r="B989" s="1"/>
-      <c r="C989" s="1"/>
-      <c r="D989" s="1"/>
-      <c r="E989" s="1"/>
-      <c r="F989" s="1"/>
-      <c r="G989" s="1"/>
-      <c r="H989" s="1"/>
-      <c r="I989" s="1"/>
-      <c r="J989" s="1"/>
-      <c r="K989" s="1"/>
-      <c r="L989" s="1"/>
-      <c r="M989" s="1"/>
-      <c r="N989" s="1"/>
-      <c r="O989" s="1"/>
-      <c r="P989" s="1"/>
-      <c r="Q989" s="1"/>
-      <c r="R989" s="1"/>
-      <c r="S989" s="1"/>
-      <c r="T989" s="1"/>
-      <c r="U989" s="1"/>
-      <c r="V989" s="1"/>
-      <c r="W989" s="1"/>
-      <c r="X989" s="1"/>
-      <c r="Y989" s="1"/>
-      <c r="Z989" s="1"/>
-    </row>
-    <row r="990" ht="17.25" customHeight="1">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1"/>
-      <c r="E990" s="1"/>
-      <c r="F990" s="1"/>
-      <c r="G990" s="1"/>
-      <c r="H990" s="1"/>
-      <c r="I990" s="1"/>
-      <c r="J990" s="1"/>
-      <c r="K990" s="1"/>
-      <c r="L990" s="1"/>
-      <c r="M990" s="1"/>
-      <c r="N990" s="1"/>
-      <c r="O990" s="1"/>
-      <c r="P990" s="1"/>
-      <c r="Q990" s="1"/>
-      <c r="R990" s="1"/>
-      <c r="S990" s="1"/>
-      <c r="T990" s="1"/>
-      <c r="U990" s="1"/>
-      <c r="V990" s="1"/>
-      <c r="W990" s="1"/>
-      <c r="X990" s="1"/>
-      <c r="Y990" s="1"/>
-      <c r="Z990" s="1"/>
-    </row>
-    <row r="991" ht="17.25" customHeight="1">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
-      <c r="E991" s="1"/>
-      <c r="F991" s="1"/>
-      <c r="G991" s="1"/>
-      <c r="H991" s="1"/>
-      <c r="I991" s="1"/>
-      <c r="J991" s="1"/>
-      <c r="K991" s="1"/>
-      <c r="L991" s="1"/>
-      <c r="M991" s="1"/>
-      <c r="N991" s="1"/>
-      <c r="O991" s="1"/>
-      <c r="P991" s="1"/>
-      <c r="Q991" s="1"/>
-      <c r="R991" s="1"/>
-      <c r="S991" s="1"/>
-      <c r="T991" s="1"/>
-      <c r="U991" s="1"/>
-      <c r="V991" s="1"/>
-      <c r="W991" s="1"/>
-      <c r="X991" s="1"/>
-      <c r="Y991" s="1"/>
-      <c r="Z991" s="1"/>
-    </row>
-    <row r="992" ht="17.25" customHeight="1">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1"/>
-      <c r="E992" s="1"/>
-      <c r="F992" s="1"/>
-      <c r="G992" s="1"/>
-      <c r="H992" s="1"/>
-      <c r="I992" s="1"/>
-      <c r="J992" s="1"/>
-      <c r="K992" s="1"/>
-      <c r="L992" s="1"/>
-      <c r="M992" s="1"/>
-      <c r="N992" s="1"/>
-      <c r="O992" s="1"/>
-      <c r="P992" s="1"/>
-      <c r="Q992" s="1"/>
-      <c r="R992" s="1"/>
-      <c r="S992" s="1"/>
-      <c r="T992" s="1"/>
-      <c r="U992" s="1"/>
-      <c r="V992" s="1"/>
-      <c r="W992" s="1"/>
-      <c r="X992" s="1"/>
-      <c r="Y992" s="1"/>
-      <c r="Z992" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
     <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="C60:I60"/>
     <mergeCell ref="C70:I70"/>
     <mergeCell ref="C71:I71"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="C85:I85"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C99:I99"/>
-    <mergeCell ref="C111:I111"/>
-    <mergeCell ref="C112:I112"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C86:I86"/>
     <mergeCell ref="C123:I123"/>
     <mergeCell ref="C124:I124"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C188:I188"/>
-    <mergeCell ref="C189:I189"/>
-    <mergeCell ref="C135:I135"/>
-    <mergeCell ref="C148:I148"/>
-    <mergeCell ref="C149:I149"/>
-    <mergeCell ref="C162:I162"/>
-    <mergeCell ref="C163:I163"/>
-    <mergeCell ref="C174:I174"/>
-    <mergeCell ref="C175:I175"/>
+    <mergeCell ref="C87:I87"/>
+    <mergeCell ref="C94:I94"/>
+    <mergeCell ref="C95:I95"/>
+    <mergeCell ref="C102:I102"/>
+    <mergeCell ref="C103:I103"/>
+    <mergeCell ref="C109:I109"/>
+    <mergeCell ref="C110:I110"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Diagrama-Márquez.xlsx
+++ b/Diagrama-Márquez.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="104">
   <si>
     <t>Tabla</t>
   </si>
@@ -82,6 +82,12 @@
     <t>id sobre que tipo de cliente es</t>
   </si>
   <si>
+    <t>country_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id de cada país </t>
+  </si>
+  <si>
     <t>mail</t>
   </si>
   <si>
@@ -115,10 +121,25 @@
     <t>id primario de cada region</t>
   </si>
   <si>
-    <t>country_id</t>
+    <t>id país de la venta</t>
   </si>
   <si>
-    <t>id país de la venta</t>
+    <t>postal_code_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id codigo postal de la region </t>
+  </si>
+  <si>
+    <t>city_id</t>
+  </si>
+  <si>
+    <t>id sobre la ciudad de la venta</t>
+  </si>
+  <si>
+    <t>state_id</t>
+  </si>
+  <si>
+    <t>id del estado donde se realizo la venta</t>
   </si>
   <si>
     <t>region dentro de los Estados Unidos</t>
@@ -130,13 +151,7 @@
     <t>TABLA DIMENSIONAL DONDE SE GUARDAN LOS DATOS DE LOS CODIGOS POSTALES</t>
   </si>
   <si>
-    <t>postal_code_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id codigo postal de la region </t>
-  </si>
-  <si>
-    <t>id de cada region</t>
+    <t xml:space="preserve">id primario del codigo postal de la region </t>
   </si>
   <si>
     <t xml:space="preserve">codigo postal de la region </t>
@@ -151,9 +166,6 @@
     <t xml:space="preserve">id primario de cada país </t>
   </si>
   <si>
-    <t>id de cada cliente</t>
-  </si>
-  <si>
     <t>país de la venta</t>
   </si>
   <si>
@@ -163,10 +175,7 @@
     <t>TABLA DIMENSIONAL DONDE SE GUARDAN LOS DATOS SOBRE LA CIUDAD DONDE SE REALIZO LA VENTA</t>
   </si>
   <si>
-    <t>city_id</t>
-  </si>
-  <si>
-    <t>id ciudad de la venta</t>
+    <t>id primario sobre la ciudad de la venta</t>
   </si>
   <si>
     <t>ciudad de la venta</t>
@@ -178,10 +187,7 @@
     <t>TABLA DIMENSIONAL DONDE SE GUARDAN LOS DATOS SOBRE EL ESTADO DONDE SE REALIZO LA VENTA</t>
   </si>
   <si>
-    <t>state_id</t>
-  </si>
-  <si>
-    <t>id estado donde se realizo la venta</t>
+    <t>id primario del estado donde se realizo la venta</t>
   </si>
   <si>
     <t>estado donde se realizo la venta</t>
@@ -197,6 +203,9 @@
   </si>
   <si>
     <t>ditail_id</t>
+  </si>
+  <si>
+    <t>id de cada cliente</t>
   </si>
   <si>
     <t>order_date</t>
@@ -386,14 +395,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -505,15 +514,10 @@
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -522,8 +526,9 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -652,7 +657,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B5:I9" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B5:I10" displayName="Table_1" id="1">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -764,7 +769,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B14:I16" displayName="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B15:I17" displayName="Table_2" id="2">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -780,7 +785,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B21:I24" displayName="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B22:I28" displayName="Table_3" id="3">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -796,7 +801,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B29:I32" displayName="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B33:I35" displayName="Table_4" id="4">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -812,7 +817,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B37:I40" displayName="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B40:I42" displayName="Table_5" id="5">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -828,7 +833,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B45:I48" displayName="Table_6" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B47:I49" displayName="Table_6" id="6">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -844,7 +849,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B53:I56" displayName="Table_7" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B54:I56" displayName="Table_7" id="7">
   <tableColumns count="8">
     <tableColumn name="KEY" id="1"/>
     <tableColumn name="COLUMN" id="2"/>
@@ -1406,18 +1411,20 @@
     <row r="9" ht="17.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="G9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1425,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1447,14 +1454,28 @@
     </row>
     <row r="10" ht="17.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1503,18 +1524,14 @@
     </row>
     <row r="12" ht="17.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1536,10 +1553,10 @@
     <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1567,30 +1584,18 @@
     </row>
     <row r="14" ht="17.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1611,29 +1616,29 @@
     </row>
     <row r="15" ht="17.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>28</v>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1656,16 +1661,16 @@
     <row r="16" ht="17.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8">
-        <v>40.0</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>8</v>
@@ -1674,10 +1679,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1699,14 +1704,30 @@
     </row>
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1755,18 +1776,14 @@
     </row>
     <row r="19" ht="17.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1788,10 +1805,10 @@
     <row r="20" ht="17.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1819,30 +1836,18 @@
     </row>
     <row r="21" ht="17.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1863,29 +1868,29 @@
     </row>
     <row r="22" ht="17.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>33</v>
+      <c r="G22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1908,7 +1913,7 @@
     <row r="23" ht="17.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>34</v>
@@ -1952,21 +1957,23 @@
     <row r="24" ht="17.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="8">
-        <v>40.0</v>
-      </c>
       <c r="F24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="9"/>
       <c r="H24" s="8" t="s">
         <v>15</v>
       </c>
@@ -1993,14 +2000,30 @@
     </row>
     <row r="25" ht="17.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="B25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2021,14 +2044,30 @@
     </row>
     <row r="26" ht="17.25" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="B26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2048,183 +2087,161 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
     </row>
     <row r="30" ht="17.25" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
     </row>
     <row r="31" ht="17.25" customHeight="1">
       <c r="A31" s="10"/>
-      <c r="B31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="B31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -2245,30 +2262,18 @@
     </row>
     <row r="32" ht="17.25" customHeight="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -2288,75 +2293,119 @@
       <c r="Z32" s="13"/>
     </row>
     <row r="33" ht="17.25" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
     </row>
     <row r="34" ht="17.25" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
     </row>
     <row r="35" ht="17.25" customHeight="1">
       <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
+      <c r="B35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -2376,107 +2425,75 @@
       <c r="Z35" s="13"/>
     </row>
     <row r="36" ht="17.25" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
     </row>
     <row r="37" ht="17.25" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
     </row>
     <row r="38" ht="17.25" customHeight="1">
       <c r="A38" s="10"/>
-      <c r="B38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -2497,30 +2514,18 @@
     </row>
     <row r="39" ht="17.25" customHeight="1">
       <c r="A39" s="10"/>
-      <c r="B39" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="B39" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -2541,23 +2546,29 @@
     </row>
     <row r="40" ht="17.25" customHeight="1">
       <c r="A40" s="10"/>
-      <c r="B40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="8" t="s">
-        <v>47</v>
+      <c r="B40" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
@@ -2578,75 +2589,97 @@
       <c r="Z40" s="13"/>
     </row>
     <row r="41" ht="17.25" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
     </row>
     <row r="42" ht="17.25" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
     </row>
     <row r="43" ht="17.25" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2667,18 +2700,14 @@
     </row>
     <row r="44" ht="17.25" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2699,30 +2728,18 @@
     </row>
     <row r="45" ht="17.25" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="B45" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2743,30 +2760,18 @@
     </row>
     <row r="46" ht="17.25" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="B46" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2787,29 +2792,29 @@
     </row>
     <row r="47" ht="17.25" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="B47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>41</v>
+      <c r="G47" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2832,28 +2837,28 @@
     <row r="48" ht="17.25" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="8">
-        <v>40.0</v>
-      </c>
       <c r="F48" s="8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2875,14 +2880,30 @@
     </row>
     <row r="49" ht="17.25" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="B49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2931,18 +2952,14 @@
     </row>
     <row r="51" ht="17.25" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="6"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2963,18 +2980,18 @@
     </row>
     <row r="52" ht="17.25" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
+      <c r="B52" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2995,30 +3012,18 @@
     </row>
     <row r="53" ht="17.25" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="B53" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3039,29 +3044,29 @@
     </row>
     <row r="54" ht="17.25" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="8" t="s">
+      <c r="B54" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>56</v>
+      <c r="G54" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3084,10 +3089,10 @@
     <row r="55" ht="17.25" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>14</v>
@@ -3102,10 +3107,10 @@
         <v>15</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3131,10 +3136,10 @@
         <v>15</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E56" s="8">
         <v>40.0</v>
@@ -3149,7 +3154,7 @@
         <v>15</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3231,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -3263,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3357,7 +3362,7 @@
         <v>16</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3383,7 +3388,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>14</v>
@@ -3401,7 +3406,7 @@
         <v>15</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3427,10 +3432,10 @@
         <v>15</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>15</v>
@@ -3445,7 +3450,7 @@
         <v>15</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3471,13 +3476,13 @@
         <v>15</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>15</v>
@@ -3489,7 +3494,7 @@
         <v>15</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3515,13 +3520,13 @@
         <v>15</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>15</v>
@@ -3533,7 +3538,7 @@
         <v>15</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3559,13 +3564,13 @@
         <v>15</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>15</v>
@@ -3577,7 +3582,7 @@
         <v>15</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3659,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3691,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3767,7 +3772,7 @@
         <v>12</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>14</v>
@@ -3785,7 +3790,7 @@
         <v>16</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3811,7 +3816,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>14</v>
@@ -3829,7 +3834,7 @@
         <v>15</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -3855,10 +3860,10 @@
         <v>15</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E75" s="8">
         <v>100.0</v>
@@ -3873,7 +3878,7 @@
         <v>15</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -3955,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3987,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -4063,7 +4068,7 @@
         <v>12</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>14</v>
@@ -4081,7 +4086,7 @@
         <v>16</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -4107,7 +4112,7 @@
         <v>18</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>14</v>
@@ -4125,7 +4130,7 @@
         <v>15</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -4151,10 +4156,10 @@
         <v>15</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E83" s="8">
         <v>40.0</v>
@@ -4169,7 +4174,7 @@
         <v>15</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -4251,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -4283,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4359,7 +4364,7 @@
         <v>12</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>14</v>
@@ -4377,7 +4382,7 @@
         <v>16</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -4403,7 +4408,7 @@
         <v>18</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>14</v>
@@ -4421,7 +4426,7 @@
         <v>15</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -4447,10 +4452,10 @@
         <v>15</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E91" s="8">
         <v>40.0</v>
@@ -4465,7 +4470,7 @@
         <v>15</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -4547,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -4579,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -4651,29 +4656,29 @@
     </row>
     <row r="97" ht="17.25" customHeight="1">
       <c r="A97" s="10"/>
-      <c r="B97" s="24" t="s">
+      <c r="B97" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D97" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="25" t="s">
+      <c r="E97" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="24" t="s">
+      <c r="F97" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="25" t="s">
+      <c r="G97" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="24" t="s">
+      <c r="H97" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I97" s="25" t="s">
-        <v>94</v>
+      <c r="I97" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="J97" s="13"/>
       <c r="K97" s="13"/>
@@ -4699,7 +4704,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>14</v>
@@ -4717,7 +4722,7 @@
         <v>15</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
@@ -4743,10 +4748,10 @@
         <v>15</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E99" s="8">
         <v>40.0</v>
@@ -4761,7 +4766,7 @@
         <v>15</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
@@ -4843,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -4875,7 +4880,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -4951,7 +4956,7 @@
         <v>12</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>14</v>
@@ -4969,7 +4974,7 @@
         <v>16</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -4995,7 +5000,7 @@
         <v>15</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>14</v>
@@ -5013,7 +5018,7 @@
         <v>15</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -5091,10 +5096,10 @@
     </row>
     <row r="109" ht="17.25" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="26"/>
+      <c r="C109" s="23"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5121,10 +5126,10 @@
     </row>
     <row r="110" ht="17.25" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="27"/>
+      <c r="C110" s="24"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
@@ -5151,7 +5156,7 @@
     </row>
     <row r="111" ht="17.25" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="18" t="s">
@@ -5195,14 +5200,14 @@
     </row>
     <row r="112" ht="17.25" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -5223,14 +5228,14 @@
     </row>
     <row r="113" ht="17.25" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -5251,14 +5256,14 @@
     </row>
     <row r="114" ht="17.25" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="28"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -5279,14 +5284,14 @@
     </row>
     <row r="115" ht="17.25" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -5307,14 +5312,14 @@
     </row>
     <row r="116" ht="17.25" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="28"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -5335,14 +5340,14 @@
     </row>
     <row r="117" ht="17.25" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="29"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -5363,14 +5368,14 @@
     </row>
     <row r="118" ht="17.25" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -5391,14 +5396,14 @@
     </row>
     <row r="119" ht="17.25" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -5419,14 +5424,14 @@
     </row>
     <row r="120" ht="17.25" customHeight="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -5503,10 +5508,10 @@
     </row>
     <row r="123" ht="17.25" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="26"/>
+      <c r="C123" s="23"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5533,10 +5538,10 @@
     </row>
     <row r="124" ht="17.25" customHeight="1">
       <c r="A124" s="1"/>
-      <c r="B124" s="22" t="s">
+      <c r="B124" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="27"/>
+      <c r="C124" s="24"/>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
@@ -5563,7 +5568,7 @@
     </row>
     <row r="125" ht="17.25" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="18" t="s">
@@ -5607,14 +5612,14 @@
     </row>
     <row r="126" ht="17.25" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -5635,14 +5640,14 @@
     </row>
     <row r="127" ht="17.25" customHeight="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="29"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -5663,14 +5668,14 @@
     </row>
     <row r="128" ht="17.25" customHeight="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -5691,14 +5696,14 @@
     </row>
     <row r="129" ht="17.25" customHeight="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -5719,14 +5724,14 @@
     </row>
     <row r="130" ht="17.25" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="28"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -5747,14 +5752,14 @@
     </row>
     <row r="131" ht="17.25" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="29"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -5775,14 +5780,14 @@
     </row>
     <row r="132" ht="17.25" customHeight="1">
       <c r="A132" s="1"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24"/>
-      <c r="I132" s="24"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -5803,14 +5808,14 @@
     </row>
     <row r="133" ht="17.25" customHeight="1">
       <c r="A133" s="1"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -5831,14 +5836,14 @@
     </row>
     <row r="134" ht="17.25" customHeight="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -28065,18 +28070,18 @@
   <mergeCells count="30">
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C14:I14"/>
     <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C46:I46"/>
     <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C53:I53"/>
     <mergeCell ref="C59:I59"/>
     <mergeCell ref="C60:I60"/>
     <mergeCell ref="C70:I70"/>
